--- a/1. Reporting_Data/IB_Daily Ticker/Ticker_Master.xlsx
+++ b/1. Reporting_Data/IB_Daily Ticker/Ticker_Master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="519">
   <si>
     <t>Symbol</t>
   </si>
@@ -277,6 +277,12 @@
     <t>GOOGL 17DEC27 335 C</t>
   </si>
   <si>
+    <t>GOOGL 17DEC27 365 C</t>
+  </si>
+  <si>
+    <t>GOOGL 17DEC27 365 P</t>
+  </si>
+  <si>
     <t>GS</t>
   </si>
   <si>
@@ -331,6 +337,9 @@
     <t>KO</t>
   </si>
   <si>
+    <t>LAC</t>
+  </si>
+  <si>
     <t>LLY</t>
   </si>
   <si>
@@ -490,6 +499,12 @@
     <t>OKLO</t>
   </si>
   <si>
+    <t>ORCL 17DEC27 190 C</t>
+  </si>
+  <si>
+    <t>ORCL 17DEC27 320 P</t>
+  </si>
+  <si>
     <t>PANW</t>
   </si>
   <si>
@@ -520,6 +535,9 @@
     <t>PLTR 17DEC27 210 P</t>
   </si>
   <si>
+    <t>PLTR 17DEC27 230 C</t>
+  </si>
+  <si>
     <t>PLTR 17DEC27 280 C</t>
   </si>
   <si>
@@ -619,6 +637,9 @@
     <t>SHYG</t>
   </si>
   <si>
+    <t>SLI</t>
+  </si>
+  <si>
     <t>SMR</t>
   </si>
   <si>
@@ -1129,6 +1150,12 @@
     <t>GOOGL US 12/17/27 C335 Equity</t>
   </si>
   <si>
+    <t>GOOGL US 12/17/27 C365 Equity</t>
+  </si>
+  <si>
+    <t>GOOGL US 12/17/27 P365 Equity</t>
+  </si>
+  <si>
     <t>GS US Equity</t>
   </si>
   <si>
@@ -1183,6 +1210,9 @@
     <t>KO US Equity</t>
   </si>
   <si>
+    <t>LAC US Equity</t>
+  </si>
+  <si>
     <t>LLY US Equity</t>
   </si>
   <si>
@@ -1285,6 +1315,12 @@
     <t>OKLO US Equity</t>
   </si>
   <si>
+    <t>ORCL US 12/17/27 C190 Equity</t>
+  </si>
+  <si>
+    <t>ORCL US 12/17/27 P320 Equity</t>
+  </si>
+  <si>
     <t>PANW US Equity</t>
   </si>
   <si>
@@ -1315,6 +1351,9 @@
     <t>PLTR US 12/17/27 P210 Equity</t>
   </si>
   <si>
+    <t>PLTR US 12/17/27 C230 Equity</t>
+  </si>
+  <si>
     <t>PLTR US 12/17/27 C280 Equity</t>
   </si>
   <si>
@@ -1412,6 +1451,9 @@
   </si>
   <si>
     <t>SHYG US Equity</t>
+  </si>
+  <si>
+    <t>SLI US Equity</t>
   </si>
   <si>
     <t>SMR US Equity</t>
@@ -1886,7 +1928,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F261"/>
+  <dimension ref="A1:F268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1917,19 +1959,19 @@
         <v>1109</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1937,19 +1979,19 @@
         <v>1258</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D3" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E3" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F3" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1957,19 +1999,19 @@
         <v>1288</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D4" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E4" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F4" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1977,19 +2019,19 @@
         <v>1398</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E5" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F5" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1997,19 +2039,19 @@
         <v>1698</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D6" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E6" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F6" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2017,19 +2059,19 @@
         <v>1810</v>
       </c>
       <c r="B7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2037,19 +2079,19 @@
         <v>2097</v>
       </c>
       <c r="B8" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C8" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D8" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E8" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F8" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2057,19 +2099,19 @@
         <v>2359</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E9" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F9" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2077,19 +2119,19 @@
         <v>2800</v>
       </c>
       <c r="B10" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D10" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E10" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F10" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2097,19 +2139,19 @@
         <v>2828</v>
       </c>
       <c r="B11" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D11" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E11" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F11" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2117,19 +2159,19 @@
         <v>2899</v>
       </c>
       <c r="B12" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D12" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E12" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F12" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2137,19 +2179,19 @@
         <v>3067</v>
       </c>
       <c r="B13" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C13" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D13" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E13" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F13" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2157,19 +2199,19 @@
         <v>3750</v>
       </c>
       <c r="B14" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C14" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D14" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E14" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F14" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2177,19 +2219,19 @@
         <v>388</v>
       </c>
       <c r="B15" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C15" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D15" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E15" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F15" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2197,19 +2239,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C16" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D16" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E16" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F16" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2217,19 +2259,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C17" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D17" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E17" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F17" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2237,19 +2279,19 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C18" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D18" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E18" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F18" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2257,19 +2299,19 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C19" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D19" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E19" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F19" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2277,19 +2319,19 @@
         <v>3888</v>
       </c>
       <c r="B20" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D20" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E20" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F20" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2297,19 +2339,19 @@
         <v>3988</v>
       </c>
       <c r="B21" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C21" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D21" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E21" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F21" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2317,19 +2359,19 @@
         <v>44075</v>
       </c>
       <c r="B22" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C22" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D22" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E22" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F22" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2337,19 +2379,19 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C23" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D23" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E23" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F23" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2357,19 +2399,19 @@
         <v>700</v>
       </c>
       <c r="B24" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C24" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D24" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E24" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F24" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2377,19 +2419,19 @@
         <v>762</v>
       </c>
       <c r="B25" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C25" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D25" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E25" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F25" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2397,19 +2439,19 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C26" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D26" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E26" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F26" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2417,19 +2459,19 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C27" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D27" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E27" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F27" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2437,19 +2479,19 @@
         <v>857</v>
       </c>
       <c r="B28" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C28" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D28" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E28" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F28" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2457,19 +2499,19 @@
         <v>883</v>
       </c>
       <c r="B29" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C29" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D29" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E29" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F29" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2477,19 +2519,19 @@
         <v>941</v>
       </c>
       <c r="B30" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C30" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D30" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E30" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F30" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2497,19 +2539,19 @@
         <v>9633</v>
       </c>
       <c r="B31" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C31" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D31" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E31" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F31" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2517,19 +2559,19 @@
         <v>981</v>
       </c>
       <c r="B32" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C32" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D32" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E32" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F32" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2537,19 +2579,19 @@
         <v>9961</v>
       </c>
       <c r="B33" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C33" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D33" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E33" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F33" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2557,19 +2599,19 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C34" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D34" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E34" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F34" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2577,19 +2619,19 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C35" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D35" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E35" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F35" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2597,19 +2639,19 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C36" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D36" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E36" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F36" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2617,19 +2659,19 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C37" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D37" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E37" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F37" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2637,19 +2679,19 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C38" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D38" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E38" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F38" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2657,19 +2699,19 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C39" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D39" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E39" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F39" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2677,19 +2719,19 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C40" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D40" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E40" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F40" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2697,19 +2739,19 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C41" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D41" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E41" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F41" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2717,19 +2759,19 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C42" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D42" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E42" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F42" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2737,19 +2779,19 @@
         <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C43" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D43" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E43" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F43" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2757,19 +2799,19 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C44" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D44" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E44" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F44" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2777,19 +2819,19 @@
         <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C45" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D45" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E45" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F45" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2797,19 +2839,19 @@
         <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C46" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D46" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E46" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F46" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2817,19 +2859,19 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C47" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D47" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E47" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F47" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2837,19 +2879,19 @@
         <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C48" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D48" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E48" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F48" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2857,19 +2899,19 @@
         <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C49" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D49" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E49" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F49" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2877,19 +2919,19 @@
         <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C50" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D50" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E50" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F50" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2897,19 +2939,19 @@
         <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C51" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D51" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E51" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F51" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2917,19 +2959,19 @@
         <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C52" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D52" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E52" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F52" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2937,19 +2979,19 @@
         <v>32</v>
       </c>
       <c r="B53" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C53" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D53" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E53" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F53" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2957,19 +2999,19 @@
         <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C54" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D54" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E54" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F54" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2977,19 +3019,19 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C55" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D55" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E55" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F55" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2997,19 +3039,19 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C56" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D56" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E56" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F56" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3017,19 +3059,19 @@
         <v>36</v>
       </c>
       <c r="B57" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C57" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D57" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E57" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F57" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3037,19 +3079,19 @@
         <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C58" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D58" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E58" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F58" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3057,19 +3099,19 @@
         <v>38</v>
       </c>
       <c r="B59" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C59" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D59" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E59" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F59" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3077,19 +3119,19 @@
         <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C60" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D60" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E60" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F60" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3097,19 +3139,19 @@
         <v>40</v>
       </c>
       <c r="B61" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C61" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D61" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E61" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F61" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3117,19 +3159,19 @@
         <v>41</v>
       </c>
       <c r="B62" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C62" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D62" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E62" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F62" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3137,19 +3179,19 @@
         <v>42</v>
       </c>
       <c r="B63" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C63" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D63" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E63" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F63" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3157,19 +3199,19 @@
         <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C64" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D64" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E64" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F64" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3177,19 +3219,19 @@
         <v>44</v>
       </c>
       <c r="B65" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C65" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D65" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E65" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F65" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3197,19 +3239,19 @@
         <v>45</v>
       </c>
       <c r="B66" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C66" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D66" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E66" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F66" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3217,19 +3259,19 @@
         <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C67" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D67" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E67" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F67" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3237,19 +3279,19 @@
         <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C68" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D68" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E68" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F68" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3257,19 +3299,19 @@
         <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C69" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D69" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E69" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F69" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3277,19 +3319,19 @@
         <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C70" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D70" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E70" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F70" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3297,19 +3339,19 @@
         <v>50</v>
       </c>
       <c r="B71" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C71" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D71" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E71" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F71" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3317,19 +3359,19 @@
         <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C72" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D72" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E72" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F72" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3337,19 +3379,19 @@
         <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C73" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D73" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E73" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F73" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3357,19 +3399,19 @@
         <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C74" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D74" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E74" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F74" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3377,19 +3419,19 @@
         <v>54</v>
       </c>
       <c r="B75" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C75" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D75" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E75" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F75" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3397,19 +3439,19 @@
         <v>55</v>
       </c>
       <c r="B76" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C76" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D76" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E76" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F76" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3417,19 +3459,19 @@
         <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C77" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D77" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E77" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F77" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3437,19 +3479,19 @@
         <v>57</v>
       </c>
       <c r="B78" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C78" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D78" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E78" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F78" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3457,19 +3499,19 @@
         <v>58</v>
       </c>
       <c r="B79" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C79" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D79" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E79" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F79" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3477,19 +3519,19 @@
         <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C80" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D80" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E80" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F80" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3497,19 +3539,19 @@
         <v>60</v>
       </c>
       <c r="B81" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C81" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D81" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E81" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F81" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3517,19 +3559,19 @@
         <v>61</v>
       </c>
       <c r="B82" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C82" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D82" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E82" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F82" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3537,19 +3579,19 @@
         <v>62</v>
       </c>
       <c r="B83" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C83" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D83" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E83" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F83" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3557,19 +3599,19 @@
         <v>63</v>
       </c>
       <c r="B84" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C84" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D84" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E84" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F84" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3577,19 +3619,19 @@
         <v>64</v>
       </c>
       <c r="B85" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C85" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D85" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E85" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F85" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3597,19 +3639,19 @@
         <v>65</v>
       </c>
       <c r="B86" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C86" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D86" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E86" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F86" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3617,19 +3659,19 @@
         <v>66</v>
       </c>
       <c r="B87" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C87" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D87" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E87" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F87" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3637,19 +3679,19 @@
         <v>67</v>
       </c>
       <c r="B88" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C88" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D88" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E88" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F88" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3657,19 +3699,19 @@
         <v>68</v>
       </c>
       <c r="B89" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C89" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D89" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E89" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F89" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3677,19 +3719,19 @@
         <v>69</v>
       </c>
       <c r="B90" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C90" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D90" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E90" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F90" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3697,19 +3739,19 @@
         <v>70</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C91" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D91" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E91" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F91" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3717,19 +3759,19 @@
         <v>71</v>
       </c>
       <c r="B92" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C92" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D92" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E92" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F92" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3737,19 +3779,19 @@
         <v>72</v>
       </c>
       <c r="B93" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C93" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D93" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E93" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F93" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3757,19 +3799,19 @@
         <v>73</v>
       </c>
       <c r="B94" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C94" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D94" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E94" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F94" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3777,19 +3819,19 @@
         <v>74</v>
       </c>
       <c r="B95" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C95" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D95" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E95" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F95" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3797,19 +3839,19 @@
         <v>75</v>
       </c>
       <c r="B96" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C96" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D96" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E96" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F96" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3817,19 +3859,19 @@
         <v>76</v>
       </c>
       <c r="B97" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C97" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D97" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E97" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F97" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3837,19 +3879,19 @@
         <v>77</v>
       </c>
       <c r="B98" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C98" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D98" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E98" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F98" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3857,19 +3899,19 @@
         <v>78</v>
       </c>
       <c r="B99" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C99" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D99" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E99" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F99" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3877,19 +3919,19 @@
         <v>79</v>
       </c>
       <c r="B100" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C100" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D100" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E100" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F100" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3897,19 +3939,19 @@
         <v>80</v>
       </c>
       <c r="B101" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C101" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D101" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E101" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F101" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3917,19 +3959,19 @@
         <v>81</v>
       </c>
       <c r="B102" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C102" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D102" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E102" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F102" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3937,19 +3979,19 @@
         <v>82</v>
       </c>
       <c r="B103" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C103" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D103" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E103" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F103" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3957,19 +3999,19 @@
         <v>83</v>
       </c>
       <c r="B104" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C104" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D104" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E104" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F104" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3977,19 +4019,19 @@
         <v>84</v>
       </c>
       <c r="B105" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C105" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D105" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E105" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F105" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3997,19 +4039,19 @@
         <v>85</v>
       </c>
       <c r="B106" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C106" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D106" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E106" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F106" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4017,19 +4059,19 @@
         <v>86</v>
       </c>
       <c r="B107" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C107" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D107" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E107" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F107" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4037,19 +4079,19 @@
         <v>87</v>
       </c>
       <c r="B108" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C108" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D108" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E108" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F108" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4057,19 +4099,19 @@
         <v>88</v>
       </c>
       <c r="B109" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C109" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D109" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E109" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F109" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4077,19 +4119,19 @@
         <v>89</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C110" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D110" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E110" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F110" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4097,19 +4139,19 @@
         <v>90</v>
       </c>
       <c r="B111" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C111" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D111" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E111" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F111" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4117,19 +4159,19 @@
         <v>91</v>
       </c>
       <c r="B112" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C112" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D112" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E112" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F112" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4137,19 +4179,19 @@
         <v>92</v>
       </c>
       <c r="B113" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C113" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D113" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="E113" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F113" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4157,19 +4199,19 @@
         <v>93</v>
       </c>
       <c r="B114" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C114" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D114" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="E114" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F114" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4177,19 +4219,19 @@
         <v>94</v>
       </c>
       <c r="B115" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C115" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D115" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E115" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F115" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4197,19 +4239,19 @@
         <v>95</v>
       </c>
       <c r="B116" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C116" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D116" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E116" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F116" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4217,19 +4259,19 @@
         <v>96</v>
       </c>
       <c r="B117" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C117" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D117" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E117" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F117" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4237,19 +4279,19 @@
         <v>97</v>
       </c>
       <c r="B118" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C118" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D118" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E118" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F118" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4257,19 +4299,19 @@
         <v>98</v>
       </c>
       <c r="B119" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C119" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D119" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E119" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F119" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4277,19 +4319,19 @@
         <v>99</v>
       </c>
       <c r="B120" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C120" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D120" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E120" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F120" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4297,19 +4339,19 @@
         <v>100</v>
       </c>
       <c r="B121" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C121" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D121" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E121" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F121" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4317,19 +4359,19 @@
         <v>101</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C122" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D122" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E122" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F122" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4337,19 +4379,19 @@
         <v>102</v>
       </c>
       <c r="B123" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C123" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D123" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E123" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="F123" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4357,19 +4399,19 @@
         <v>103</v>
       </c>
       <c r="B124" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C124" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D124" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E124" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F124" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4377,19 +4419,19 @@
         <v>104</v>
       </c>
       <c r="B125" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C125" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D125" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E125" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F125" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4397,19 +4439,19 @@
         <v>105</v>
       </c>
       <c r="B126" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C126" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D126" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E126" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F126" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4417,19 +4459,19 @@
         <v>106</v>
       </c>
       <c r="B127" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C127" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D127" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E127" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F127" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4437,19 +4479,19 @@
         <v>107</v>
       </c>
       <c r="B128" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C128" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D128" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E128" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F128" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4457,19 +4499,19 @@
         <v>108</v>
       </c>
       <c r="B129" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C129" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D129" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E129" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F129" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4477,19 +4519,19 @@
         <v>109</v>
       </c>
       <c r="B130" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C130" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D130" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E130" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F130" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4497,19 +4539,19 @@
         <v>110</v>
       </c>
       <c r="B131" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C131" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D131" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E131" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F131" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4517,19 +4559,19 @@
         <v>111</v>
       </c>
       <c r="B132" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C132" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D132" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E132" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F132" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4537,19 +4579,19 @@
         <v>112</v>
       </c>
       <c r="B133" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C133" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D133" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E133" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F133" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4557,19 +4599,19 @@
         <v>113</v>
       </c>
       <c r="B134" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C134" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D134" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E134" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F134" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4577,19 +4619,19 @@
         <v>114</v>
       </c>
       <c r="B135" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C135" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D135" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E135" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F135" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4597,19 +4639,19 @@
         <v>115</v>
       </c>
       <c r="B136" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C136" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D136" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F136" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4617,19 +4659,19 @@
         <v>116</v>
       </c>
       <c r="B137" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C137" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D137" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F137" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4637,19 +4679,19 @@
         <v>117</v>
       </c>
       <c r="B138" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C138" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D138" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4657,19 +4699,19 @@
         <v>118</v>
       </c>
       <c r="B139" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C139" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D139" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E139" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F139" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4677,19 +4719,19 @@
         <v>119</v>
       </c>
       <c r="B140" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C140" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D140" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E140" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4697,19 +4739,19 @@
         <v>120</v>
       </c>
       <c r="B141" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C141" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D141" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E141" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F141" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4717,19 +4759,19 @@
         <v>121</v>
       </c>
       <c r="B142" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C142" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D142" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E142" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F142" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4737,16 +4779,19 @@
         <v>122</v>
       </c>
       <c r="B143" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C143" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D143" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E143" t="s">
-        <v>261</v>
+        <v>267</v>
+      </c>
+      <c r="F143" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4754,288 +4799,294 @@
         <v>123</v>
       </c>
       <c r="B144" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C144" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D144" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E144" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F144" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>124</v>
       </c>
       <c r="B145" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C145" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D145" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E145" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F145" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>125</v>
       </c>
       <c r="B146" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C146" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D146" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E146" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>126</v>
       </c>
       <c r="B147" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C147" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D147" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E147" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>127</v>
       </c>
       <c r="B148" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C148" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D148" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E148" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>128</v>
       </c>
       <c r="B149" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C149" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D149" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E149" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>129</v>
       </c>
       <c r="B150" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C150" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D150" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E150" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>130</v>
       </c>
       <c r="B151" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C151" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D151" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E151" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>131</v>
       </c>
       <c r="B152" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C152" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D152" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E152" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>132</v>
       </c>
       <c r="B153" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C153" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D153" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E153" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>133</v>
       </c>
       <c r="B154" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C154" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D154" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E154" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>134</v>
       </c>
       <c r="B155" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C155" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D155" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E155" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>135</v>
       </c>
       <c r="B156" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C156" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D156" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E156" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>136</v>
       </c>
       <c r="B157" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C157" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D157" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E157" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>137</v>
       </c>
       <c r="B158" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C158" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D158" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E158" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>138</v>
       </c>
       <c r="B159" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C159" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D159" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E159" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>139</v>
       </c>
       <c r="B160" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C160" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D160" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E160" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -5043,16 +5094,16 @@
         <v>140</v>
       </c>
       <c r="B161" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C161" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D161" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E161" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5060,19 +5111,16 @@
         <v>141</v>
       </c>
       <c r="B162" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C162" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D162" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E162" t="s">
-        <v>263</v>
-      </c>
-      <c r="F162" t="s">
-        <v>406</v>
+        <v>268</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5080,19 +5128,16 @@
         <v>142</v>
       </c>
       <c r="B163" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C163" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D163" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E163" t="s">
-        <v>260</v>
-      </c>
-      <c r="F163" t="s">
-        <v>407</v>
+        <v>268</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5100,19 +5145,16 @@
         <v>143</v>
       </c>
       <c r="B164" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C164" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D164" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E164" t="s">
-        <v>260</v>
-      </c>
-      <c r="F164" t="s">
-        <v>408</v>
+        <v>268</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5120,19 +5162,19 @@
         <v>144</v>
       </c>
       <c r="B165" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C165" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D165" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="E165" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F165" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5140,19 +5182,19 @@
         <v>145</v>
       </c>
       <c r="B166" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C166" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D166" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E166" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F166" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5160,19 +5202,19 @@
         <v>146</v>
       </c>
       <c r="B167" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C167" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D167" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E167" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F167" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5180,19 +5222,19 @@
         <v>147</v>
       </c>
       <c r="B168" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C168" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D168" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E168" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F168" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5200,19 +5242,19 @@
         <v>148</v>
       </c>
       <c r="B169" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C169" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D169" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E169" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F169" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5220,19 +5262,19 @@
         <v>149</v>
       </c>
       <c r="B170" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C170" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D170" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E170" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F170" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5240,19 +5282,19 @@
         <v>150</v>
       </c>
       <c r="B171" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C171" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D171" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E171" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F171" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5260,19 +5302,19 @@
         <v>151</v>
       </c>
       <c r="B172" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C172" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D172" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E172" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F172" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5280,19 +5322,19 @@
         <v>152</v>
       </c>
       <c r="B173" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C173" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D173" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E173" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F173" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5300,19 +5342,19 @@
         <v>153</v>
       </c>
       <c r="B174" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C174" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D174" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E174" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F174" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5320,19 +5362,19 @@
         <v>154</v>
       </c>
       <c r="B175" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C175" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D175" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E175" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F175" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5340,19 +5382,19 @@
         <v>155</v>
       </c>
       <c r="B176" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C176" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D176" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E176" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F176" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5360,19 +5402,19 @@
         <v>156</v>
       </c>
       <c r="B177" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C177" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D177" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E177" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F177" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5380,19 +5422,19 @@
         <v>157</v>
       </c>
       <c r="B178" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C178" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D178" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E178" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F178" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5400,19 +5442,19 @@
         <v>158</v>
       </c>
       <c r="B179" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C179" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D179" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E179" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F179" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5420,19 +5462,19 @@
         <v>159</v>
       </c>
       <c r="B180" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C180" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D180" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E180" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F180" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5440,19 +5482,19 @@
         <v>160</v>
       </c>
       <c r="B181" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C181" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D181" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E181" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F181" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5460,19 +5502,19 @@
         <v>161</v>
       </c>
       <c r="B182" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C182" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D182" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E182" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F182" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5480,19 +5522,19 @@
         <v>162</v>
       </c>
       <c r="B183" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C183" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D183" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E183" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F183" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5500,19 +5542,19 @@
         <v>163</v>
       </c>
       <c r="B184" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C184" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D184" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E184" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F184" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5520,19 +5562,19 @@
         <v>164</v>
       </c>
       <c r="B185" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C185" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D185" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E185" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F185" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5540,19 +5582,19 @@
         <v>165</v>
       </c>
       <c r="B186" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C186" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D186" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E186" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F186" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5560,19 +5602,19 @@
         <v>166</v>
       </c>
       <c r="B187" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C187" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D187" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E187" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F187" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5580,19 +5622,19 @@
         <v>167</v>
       </c>
       <c r="B188" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C188" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D188" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E188" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F188" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5600,19 +5642,19 @@
         <v>168</v>
       </c>
       <c r="B189" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C189" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D189" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E189" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F189" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5620,19 +5662,19 @@
         <v>169</v>
       </c>
       <c r="B190" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C190" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D190" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E190" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F190" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5640,19 +5682,19 @@
         <v>170</v>
       </c>
       <c r="B191" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C191" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D191" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E191" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F191" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5660,19 +5702,19 @@
         <v>171</v>
       </c>
       <c r="B192" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C192" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D192" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E192" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F192" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5680,19 +5722,19 @@
         <v>172</v>
       </c>
       <c r="B193" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C193" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D193" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E193" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F193" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5700,19 +5742,19 @@
         <v>173</v>
       </c>
       <c r="B194" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C194" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D194" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E194" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F194" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5720,19 +5762,19 @@
         <v>174</v>
       </c>
       <c r="B195" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C195" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D195" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E195" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F195" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5740,19 +5782,19 @@
         <v>175</v>
       </c>
       <c r="B196" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C196" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D196" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E196" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F196" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5760,19 +5802,19 @@
         <v>176</v>
       </c>
       <c r="B197" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C197" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D197" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E197" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F197" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5780,19 +5822,19 @@
         <v>177</v>
       </c>
       <c r="B198" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C198" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D198" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E198" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F198" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5800,19 +5842,19 @@
         <v>178</v>
       </c>
       <c r="B199" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C199" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D199" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E199" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F199" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5820,19 +5862,19 @@
         <v>179</v>
       </c>
       <c r="B200" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C200" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D200" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E200" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F200" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5840,19 +5882,19 @@
         <v>180</v>
       </c>
       <c r="B201" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C201" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D201" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E201" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F201" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5860,19 +5902,19 @@
         <v>181</v>
       </c>
       <c r="B202" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C202" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D202" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E202" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F202" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5880,19 +5922,19 @@
         <v>182</v>
       </c>
       <c r="B203" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C203" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D203" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E203" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F203" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5900,19 +5942,19 @@
         <v>183</v>
       </c>
       <c r="B204" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C204" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D204" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E204" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F204" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5920,19 +5962,19 @@
         <v>184</v>
       </c>
       <c r="B205" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C205" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D205" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E205" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F205" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5940,19 +5982,19 @@
         <v>185</v>
       </c>
       <c r="B206" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C206" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D206" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E206" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F206" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5960,19 +6002,19 @@
         <v>186</v>
       </c>
       <c r="B207" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C207" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D207" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E207" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F207" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5980,19 +6022,19 @@
         <v>187</v>
       </c>
       <c r="B208" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C208" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D208" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E208" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F208" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -6000,19 +6042,19 @@
         <v>188</v>
       </c>
       <c r="B209" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C209" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D209" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E209" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F209" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -6020,19 +6062,19 @@
         <v>189</v>
       </c>
       <c r="B210" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C210" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D210" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E210" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F210" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -6040,19 +6082,19 @@
         <v>190</v>
       </c>
       <c r="B211" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C211" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D211" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E211" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F211" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -6060,19 +6102,19 @@
         <v>191</v>
       </c>
       <c r="B212" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C212" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D212" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E212" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F212" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -6080,19 +6122,19 @@
         <v>192</v>
       </c>
       <c r="B213" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C213" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D213" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E213" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F213" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6100,19 +6142,19 @@
         <v>193</v>
       </c>
       <c r="B214" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C214" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D214" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E214" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F214" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6120,19 +6162,19 @@
         <v>194</v>
       </c>
       <c r="B215" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C215" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D215" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E215" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F215" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6140,19 +6182,19 @@
         <v>195</v>
       </c>
       <c r="B216" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C216" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D216" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E216" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F216" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6160,19 +6202,19 @@
         <v>196</v>
       </c>
       <c r="B217" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C217" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D217" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E217" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F217" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6180,19 +6222,19 @@
         <v>197</v>
       </c>
       <c r="B218" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C218" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D218" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E218" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F218" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6200,19 +6242,19 @@
         <v>198</v>
       </c>
       <c r="B219" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C219" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D219" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E219" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F219" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6220,19 +6262,19 @@
         <v>199</v>
       </c>
       <c r="B220" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C220" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D220" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E220" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F220" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6240,19 +6282,19 @@
         <v>200</v>
       </c>
       <c r="B221" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C221" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D221" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E221" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F221" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6260,19 +6302,19 @@
         <v>201</v>
       </c>
       <c r="B222" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C222" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D222" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E222" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F222" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6280,19 +6322,19 @@
         <v>202</v>
       </c>
       <c r="B223" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C223" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D223" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E223" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F223" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6300,19 +6342,19 @@
         <v>203</v>
       </c>
       <c r="B224" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C224" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D224" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E224" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F224" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6320,19 +6362,19 @@
         <v>204</v>
       </c>
       <c r="B225" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C225" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D225" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="E225" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F225" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -6340,19 +6382,19 @@
         <v>205</v>
       </c>
       <c r="B226" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C226" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D226" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E226" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F226" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -6360,19 +6402,19 @@
         <v>206</v>
       </c>
       <c r="B227" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C227" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D227" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E227" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="F227" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -6380,19 +6422,19 @@
         <v>207</v>
       </c>
       <c r="B228" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C228" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D228" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E228" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F228" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6400,19 +6442,19 @@
         <v>208</v>
       </c>
       <c r="B229" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C229" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D229" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E229" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F229" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -6420,19 +6462,19 @@
         <v>209</v>
       </c>
       <c r="B230" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C230" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D230" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E230" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F230" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6440,19 +6482,19 @@
         <v>210</v>
       </c>
       <c r="B231" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C231" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D231" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E231" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F231" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6460,19 +6502,19 @@
         <v>211</v>
       </c>
       <c r="B232" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C232" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D232" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E232" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F232" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6480,19 +6522,19 @@
         <v>212</v>
       </c>
       <c r="B233" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C233" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D233" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E233" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F233" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6500,19 +6542,19 @@
         <v>213</v>
       </c>
       <c r="B234" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C234" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D234" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E234" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F234" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6520,19 +6562,19 @@
         <v>214</v>
       </c>
       <c r="B235" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C235" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D235" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E235" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F235" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6540,19 +6582,19 @@
         <v>215</v>
       </c>
       <c r="B236" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C236" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D236" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E236" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F236" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6560,19 +6602,19 @@
         <v>216</v>
       </c>
       <c r="B237" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C237" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D237" t="s">
         <v>258</v>
       </c>
       <c r="E237" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F237" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6580,19 +6622,19 @@
         <v>217</v>
       </c>
       <c r="B238" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C238" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D238" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E238" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F238" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6600,19 +6642,19 @@
         <v>218</v>
       </c>
       <c r="B239" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C239" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D239" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E239" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F239" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6620,19 +6662,19 @@
         <v>219</v>
       </c>
       <c r="B240" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C240" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D240" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E240" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F240" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6640,19 +6682,19 @@
         <v>220</v>
       </c>
       <c r="B241" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C241" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D241" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E241" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F241" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6660,19 +6702,19 @@
         <v>221</v>
       </c>
       <c r="B242" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C242" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D242" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E242" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F242" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6680,19 +6722,19 @@
         <v>222</v>
       </c>
       <c r="B243" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C243" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D243" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="E243" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="F243" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6700,19 +6742,19 @@
         <v>223</v>
       </c>
       <c r="B244" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C244" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D244" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="E244" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="F244" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6720,19 +6762,19 @@
         <v>224</v>
       </c>
       <c r="B245" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C245" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D245" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E245" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F245" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6740,19 +6782,19 @@
         <v>225</v>
       </c>
       <c r="B246" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C246" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D246" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E246" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F246" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6760,19 +6802,19 @@
         <v>226</v>
       </c>
       <c r="B247" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C247" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D247" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E247" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F247" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6780,19 +6822,19 @@
         <v>227</v>
       </c>
       <c r="B248" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D248" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E248" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F248" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6800,19 +6842,19 @@
         <v>228</v>
       </c>
       <c r="B249" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D249" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E249" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F249" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6820,19 +6862,19 @@
         <v>229</v>
       </c>
       <c r="B250" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D250" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E250" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F250" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6840,19 +6882,19 @@
         <v>230</v>
       </c>
       <c r="B251" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C251" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D251" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E251" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F251" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6860,19 +6902,19 @@
         <v>231</v>
       </c>
       <c r="B252" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C252" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D252" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E252" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F252" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6880,16 +6922,19 @@
         <v>232</v>
       </c>
       <c r="B253" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C253" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D253" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E253" t="s">
-        <v>261</v>
+        <v>268</v>
+      </c>
+      <c r="F253" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6897,19 +6942,19 @@
         <v>233</v>
       </c>
       <c r="B254" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C254" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D254" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E254" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F254" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6917,19 +6962,19 @@
         <v>234</v>
       </c>
       <c r="B255" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C255" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D255" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E255" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F255" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6937,19 +6982,19 @@
         <v>235</v>
       </c>
       <c r="B256" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C256" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D256" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="E256" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F256" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6957,19 +7002,19 @@
         <v>236</v>
       </c>
       <c r="B257" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C257" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D257" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E257" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F257" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6977,19 +7022,19 @@
         <v>237</v>
       </c>
       <c r="B258" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C258" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D258" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="E258" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F258" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6997,19 +7042,19 @@
         <v>238</v>
       </c>
       <c r="B259" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C259" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D259" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -7017,19 +7062,16 @@
         <v>239</v>
       </c>
       <c r="B260" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C260" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D260" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>260</v>
-      </c>
-      <c r="F260" t="s">
-        <v>503</v>
+        <v>268</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -7037,19 +7079,159 @@
         <v>240</v>
       </c>
       <c r="B261" t="s">
+        <v>251</v>
+      </c>
+      <c r="C261" t="s">
+        <v>254</v>
+      </c>
+      <c r="D261" t="s">
+        <v>258</v>
+      </c>
+      <c r="E261" t="s">
+        <v>267</v>
+      </c>
+      <c r="F261" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" t="s">
+        <v>241</v>
+      </c>
+      <c r="B262" t="s">
+        <v>251</v>
+      </c>
+      <c r="C262" t="s">
+        <v>254</v>
+      </c>
+      <c r="D262" t="s">
+        <v>257</v>
+      </c>
+      <c r="E262" t="s">
+        <v>267</v>
+      </c>
+      <c r="F262" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" t="s">
+        <v>242</v>
+      </c>
+      <c r="B263" t="s">
+        <v>251</v>
+      </c>
+      <c r="C263" t="s">
+        <v>254</v>
+      </c>
+      <c r="D263" t="s">
+        <v>257</v>
+      </c>
+      <c r="E263" t="s">
+        <v>267</v>
+      </c>
+      <c r="F263" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" t="s">
+        <v>243</v>
+      </c>
+      <c r="B264" t="s">
+        <v>251</v>
+      </c>
+      <c r="C264" t="s">
+        <v>254</v>
+      </c>
+      <c r="D264" t="s">
+        <v>265</v>
+      </c>
+      <c r="E264" t="s">
+        <v>271</v>
+      </c>
+      <c r="F264" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" t="s">
         <v>244</v>
       </c>
-      <c r="C261" t="s">
+      <c r="B265" t="s">
+        <v>251</v>
+      </c>
+      <c r="C265" t="s">
+        <v>254</v>
+      </c>
+      <c r="D265" t="s">
+        <v>258</v>
+      </c>
+      <c r="E265" t="s">
+        <v>267</v>
+      </c>
+      <c r="F265" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" t="s">
+        <v>245</v>
+      </c>
+      <c r="B266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C266" t="s">
+        <v>254</v>
+      </c>
+      <c r="D266" t="s">
+        <v>258</v>
+      </c>
+      <c r="E266" t="s">
+        <v>267</v>
+      </c>
+      <c r="F266" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" t="s">
+        <v>246</v>
+      </c>
+      <c r="B267" t="s">
+        <v>251</v>
+      </c>
+      <c r="C267" t="s">
+        <v>254</v>
+      </c>
+      <c r="D267" t="s">
+        <v>257</v>
+      </c>
+      <c r="E267" t="s">
+        <v>267</v>
+      </c>
+      <c r="F267" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" t="s">
         <v>247</v>
       </c>
-      <c r="D261" t="s">
-        <v>251</v>
-      </c>
-      <c r="E261" t="s">
-        <v>260</v>
-      </c>
-      <c r="F261" t="s">
-        <v>504</v>
+      <c r="B268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C268" t="s">
+        <v>254</v>
+      </c>
+      <c r="D268" t="s">
+        <v>258</v>
+      </c>
+      <c r="E268" t="s">
+        <v>267</v>
+      </c>
+      <c r="F268" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/1. Reporting_Data/IB_Daily Ticker/Ticker_Master.xlsx
+++ b/1. Reporting_Data/IB_Daily Ticker/Ticker_Master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="542">
   <si>
     <t>Symbol</t>
   </si>
@@ -307,6 +307,9 @@
     <t>IDMO</t>
   </si>
   <si>
+    <t>INTC</t>
+  </si>
+  <si>
     <t>IOT</t>
   </si>
   <si>
@@ -334,6 +337,18 @@
     <t>JPM 17JUN27 300 C</t>
   </si>
   <si>
+    <t>JPM 21JAN28 310 P</t>
+  </si>
+  <si>
+    <t>JPM 21JAN28 460 P</t>
+  </si>
+  <si>
+    <t>JPM 21JAN28 470 C</t>
+  </si>
+  <si>
+    <t>JPM 21JAN28 470 P</t>
+  </si>
+  <si>
     <t>KO</t>
   </si>
   <si>
@@ -397,9 +412,18 @@
     <t>NQ 05SEP25 23250 P</t>
   </si>
   <si>
+    <t>NQ 19DEC25 24500 C</t>
+  </si>
+  <si>
     <t>NQ 19DEC25 24750 C</t>
   </si>
   <si>
+    <t>NQ 19DEC25 25750 C</t>
+  </si>
+  <si>
+    <t>NQ 19DEC25 26000 C</t>
+  </si>
+  <si>
     <t>NQ 19DEC25 26250 C</t>
   </si>
   <si>
@@ -502,9 +526,18 @@
     <t>ORCL 17DEC27 190 C</t>
   </si>
   <si>
+    <t>ORCL 17DEC27 250 P</t>
+  </si>
+  <si>
+    <t>ORCL 17DEC27 300 P</t>
+  </si>
+  <si>
     <t>ORCL 17DEC27 320 P</t>
   </si>
   <si>
+    <t>ORCL 17DEC27 340 C</t>
+  </si>
+  <si>
     <t>PANW</t>
   </si>
   <si>
@@ -523,9 +556,15 @@
     <t>PLTR</t>
   </si>
   <si>
+    <t>PLTR 17DEC27 160 C</t>
+  </si>
+  <si>
     <t>PLTR 17DEC27 165 P</t>
   </si>
   <si>
+    <t>PLTR 17DEC27 170 P</t>
+  </si>
+  <si>
     <t>PLTR 17DEC27 180 P</t>
   </si>
   <si>
@@ -1180,6 +1219,9 @@
     <t>IDMO US Equity</t>
   </si>
   <si>
+    <t>INTC US Equity</t>
+  </si>
+  <si>
     <t>IOT US Equity</t>
   </si>
   <si>
@@ -1207,6 +1249,18 @@
     <t>JPM US 06/17/27 C300 Equity</t>
   </si>
   <si>
+    <t>JPM US 01/21/28 P310 Equity</t>
+  </si>
+  <si>
+    <t>JPM US 01/21/28 P460 Equity</t>
+  </si>
+  <si>
+    <t>JPM US 01/21/28 C470 Equity</t>
+  </si>
+  <si>
+    <t>JPM US 01/21/28 P470 Equity</t>
+  </si>
+  <si>
     <t>KO US Equity</t>
   </si>
   <si>
@@ -1318,9 +1372,18 @@
     <t>ORCL US 12/17/27 C190 Equity</t>
   </si>
   <si>
+    <t>ORCL US 12/17/27 P250 Equity</t>
+  </si>
+  <si>
+    <t>ORCL US 12/17/27 P300 Equity</t>
+  </si>
+  <si>
     <t>ORCL US 12/17/27 P320 Equity</t>
   </si>
   <si>
+    <t>ORCL US 12/17/27 C340 Equity</t>
+  </si>
+  <si>
     <t>PANW US Equity</t>
   </si>
   <si>
@@ -1339,7 +1402,13 @@
     <t>PLTR US Equity</t>
   </si>
   <si>
+    <t>PLTR US 12/17/27 C160 Equity</t>
+  </si>
+  <si>
     <t>PLTR US 12/17/27 P165 Equity</t>
+  </si>
+  <si>
+    <t>PLTR US 12/17/27 P170 Equity</t>
   </si>
   <si>
     <t>PLTR US 12/17/27 P180 Equity</t>
@@ -1928,7 +1997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F268"/>
+  <dimension ref="A1:F281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1959,19 +2028,19 @@
         <v>1109</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D2" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F2" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1979,19 +2048,19 @@
         <v>1258</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F3" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1999,19 +2068,19 @@
         <v>1288</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F4" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2019,19 +2088,19 @@
         <v>1398</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D5" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E5" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F5" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2039,19 +2108,19 @@
         <v>1698</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E6" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F6" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2059,19 +2128,19 @@
         <v>1810</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2079,19 +2148,19 @@
         <v>2097</v>
       </c>
       <c r="B8" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D8" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E8" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F8" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2099,19 +2168,19 @@
         <v>2359</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E9" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F9" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2119,19 +2188,19 @@
         <v>2800</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C10" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D10" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E10" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F10" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2139,19 +2208,19 @@
         <v>2828</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C11" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D11" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E11" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F11" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2159,19 +2228,19 @@
         <v>2899</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C12" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D12" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E12" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F12" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2179,19 +2248,19 @@
         <v>3067</v>
       </c>
       <c r="B13" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C13" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D13" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E13" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F13" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2199,19 +2268,19 @@
         <v>3750</v>
       </c>
       <c r="B14" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C14" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D14" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E14" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F14" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2219,19 +2288,19 @@
         <v>388</v>
       </c>
       <c r="B15" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C15" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D15" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E15" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F15" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2239,19 +2308,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C16" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D16" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E16" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F16" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2259,19 +2328,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C17" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D17" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E17" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F17" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2279,19 +2348,19 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C18" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D18" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E18" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F18" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2299,19 +2368,19 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C19" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D19" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E19" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F19" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2319,19 +2388,19 @@
         <v>3888</v>
       </c>
       <c r="B20" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C20" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D20" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E20" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F20" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2339,19 +2408,19 @@
         <v>3988</v>
       </c>
       <c r="B21" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C21" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D21" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E21" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F21" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2359,19 +2428,19 @@
         <v>44075</v>
       </c>
       <c r="B22" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C22" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D22" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="E22" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="F22" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2379,19 +2448,19 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C23" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D23" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="E23" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="F23" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2399,19 +2468,19 @@
         <v>700</v>
       </c>
       <c r="B24" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C24" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D24" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E24" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F24" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2419,19 +2488,19 @@
         <v>762</v>
       </c>
       <c r="B25" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C25" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D25" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E25" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F25" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2439,19 +2508,19 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C26" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D26" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E26" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F26" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2459,19 +2528,19 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C27" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D27" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E27" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F27" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2479,19 +2548,19 @@
         <v>857</v>
       </c>
       <c r="B28" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C28" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D28" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E28" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F28" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2499,19 +2568,19 @@
         <v>883</v>
       </c>
       <c r="B29" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C29" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D29" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E29" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F29" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2519,19 +2588,19 @@
         <v>941</v>
       </c>
       <c r="B30" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C30" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D30" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E30" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F30" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2539,19 +2608,19 @@
         <v>9633</v>
       </c>
       <c r="B31" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C31" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D31" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E31" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F31" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2559,19 +2628,19 @@
         <v>981</v>
       </c>
       <c r="B32" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C32" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D32" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E32" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F32" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2579,19 +2648,19 @@
         <v>9961</v>
       </c>
       <c r="B33" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C33" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D33" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E33" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F33" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2599,19 +2668,19 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C34" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D34" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E34" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F34" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2619,19 +2688,19 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C35" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D35" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E35" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F35" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2639,19 +2708,19 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C36" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D36" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E36" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F36" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2659,19 +2728,19 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C37" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D37" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E37" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F37" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2679,19 +2748,19 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C38" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D38" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E38" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2699,19 +2768,19 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C39" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D39" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="E39" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="F39" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2719,19 +2788,19 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C40" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D40" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E40" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F40" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2739,19 +2808,19 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C41" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D41" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E41" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F41" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2759,19 +2828,19 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C42" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D42" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E42" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F42" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2779,19 +2848,19 @@
         <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C43" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D43" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E43" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F43" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2799,19 +2868,19 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C44" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D44" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E44" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F44" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2819,19 +2888,19 @@
         <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C45" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D45" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E45" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F45" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2839,19 +2908,19 @@
         <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C46" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D46" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E46" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F46" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2859,19 +2928,19 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C47" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D47" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E47" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F47" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2879,19 +2948,19 @@
         <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C48" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D48" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E48" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F48" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2899,19 +2968,19 @@
         <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C49" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D49" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E49" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F49" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2919,19 +2988,19 @@
         <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C50" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D50" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E50" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F50" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2939,19 +3008,19 @@
         <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C51" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D51" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E51" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F51" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2959,19 +3028,19 @@
         <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C52" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D52" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E52" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F52" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2979,19 +3048,19 @@
         <v>32</v>
       </c>
       <c r="B53" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C53" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D53" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E53" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F53" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2999,19 +3068,19 @@
         <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C54" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D54" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E54" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F54" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3019,19 +3088,19 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C55" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D55" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E55" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F55" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3039,19 +3108,19 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C56" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D56" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E56" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F56" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3059,19 +3128,19 @@
         <v>36</v>
       </c>
       <c r="B57" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C57" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D57" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E57" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F57" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3079,19 +3148,19 @@
         <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C58" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D58" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E58" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F58" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3099,19 +3168,19 @@
         <v>38</v>
       </c>
       <c r="B59" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C59" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D59" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E59" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F59" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3119,19 +3188,19 @@
         <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C60" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D60" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E60" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F60" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3139,19 +3208,19 @@
         <v>40</v>
       </c>
       <c r="B61" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C61" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D61" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E61" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F61" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3159,19 +3228,19 @@
         <v>41</v>
       </c>
       <c r="B62" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C62" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D62" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E62" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F62" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3179,19 +3248,19 @@
         <v>42</v>
       </c>
       <c r="B63" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C63" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D63" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E63" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F63" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3199,19 +3268,19 @@
         <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C64" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D64" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E64" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F64" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3219,19 +3288,19 @@
         <v>44</v>
       </c>
       <c r="B65" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C65" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D65" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E65" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F65" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3239,19 +3308,19 @@
         <v>45</v>
       </c>
       <c r="B66" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C66" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D66" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E66" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F66" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3259,19 +3328,19 @@
         <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C67" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D67" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E67" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F67" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3279,19 +3348,19 @@
         <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C68" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D68" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E68" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F68" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3299,19 +3368,19 @@
         <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C69" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D69" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E69" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F69" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3319,19 +3388,19 @@
         <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C70" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D70" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E70" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F70" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3339,19 +3408,19 @@
         <v>50</v>
       </c>
       <c r="B71" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C71" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D71" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E71" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F71" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3359,19 +3428,19 @@
         <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C72" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D72" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E72" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F72" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3379,19 +3448,19 @@
         <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C73" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D73" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E73" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F73" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3399,19 +3468,19 @@
         <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C74" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D74" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E74" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F74" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3419,19 +3488,19 @@
         <v>54</v>
       </c>
       <c r="B75" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C75" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D75" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E75" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F75" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3439,19 +3508,19 @@
         <v>55</v>
       </c>
       <c r="B76" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C76" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D76" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E76" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F76" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3459,19 +3528,19 @@
         <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C77" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D77" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E77" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F77" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3479,19 +3548,19 @@
         <v>57</v>
       </c>
       <c r="B78" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C78" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D78" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E78" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F78" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3499,19 +3568,19 @@
         <v>58</v>
       </c>
       <c r="B79" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C79" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D79" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E79" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F79" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3519,19 +3588,19 @@
         <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C80" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D80" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E80" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F80" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3539,19 +3608,19 @@
         <v>60</v>
       </c>
       <c r="B81" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C81" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D81" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E81" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F81" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3559,19 +3628,19 @@
         <v>61</v>
       </c>
       <c r="B82" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C82" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D82" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E82" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F82" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3579,19 +3648,19 @@
         <v>62</v>
       </c>
       <c r="B83" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C83" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D83" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E83" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F83" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3599,19 +3668,19 @@
         <v>63</v>
       </c>
       <c r="B84" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C84" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D84" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="E84" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="F84" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3619,19 +3688,19 @@
         <v>64</v>
       </c>
       <c r="B85" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C85" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D85" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E85" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F85" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3639,19 +3708,19 @@
         <v>65</v>
       </c>
       <c r="B86" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C86" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D86" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="E86" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="F86" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3659,19 +3728,19 @@
         <v>66</v>
       </c>
       <c r="B87" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C87" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D87" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E87" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F87" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3679,19 +3748,19 @@
         <v>67</v>
       </c>
       <c r="B88" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C88" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D88" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E88" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F88" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3699,19 +3768,19 @@
         <v>68</v>
       </c>
       <c r="B89" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C89" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D89" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E89" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F89" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3719,19 +3788,19 @@
         <v>69</v>
       </c>
       <c r="B90" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C90" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D90" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E90" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F90" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3739,19 +3808,19 @@
         <v>70</v>
       </c>
       <c r="B91" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C91" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D91" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E91" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F91" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3759,19 +3828,19 @@
         <v>71</v>
       </c>
       <c r="B92" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C92" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D92" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E92" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F92" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3779,19 +3848,19 @@
         <v>72</v>
       </c>
       <c r="B93" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C93" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D93" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E93" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F93" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3799,19 +3868,19 @@
         <v>73</v>
       </c>
       <c r="B94" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C94" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D94" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="E94" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="F94" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3819,19 +3888,19 @@
         <v>74</v>
       </c>
       <c r="B95" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C95" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D95" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="E95" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="F95" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3839,19 +3908,19 @@
         <v>75</v>
       </c>
       <c r="B96" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C96" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D96" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="E96" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="F96" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3859,19 +3928,19 @@
         <v>76</v>
       </c>
       <c r="B97" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C97" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D97" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E97" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F97" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3879,19 +3948,19 @@
         <v>77</v>
       </c>
       <c r="B98" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C98" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D98" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E98" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F98" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3899,19 +3968,19 @@
         <v>78</v>
       </c>
       <c r="B99" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C99" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D99" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="E99" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="F99" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3919,19 +3988,19 @@
         <v>79</v>
       </c>
       <c r="B100" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C100" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D100" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E100" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F100" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3939,19 +4008,19 @@
         <v>80</v>
       </c>
       <c r="B101" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C101" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D101" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E101" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F101" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3959,19 +4028,19 @@
         <v>81</v>
       </c>
       <c r="B102" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C102" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D102" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E102" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F102" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3979,19 +4048,19 @@
         <v>82</v>
       </c>
       <c r="B103" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C103" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D103" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E103" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F103" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3999,19 +4068,19 @@
         <v>83</v>
       </c>
       <c r="B104" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C104" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D104" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E104" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F104" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4019,19 +4088,19 @@
         <v>84</v>
       </c>
       <c r="B105" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C105" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D105" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E105" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F105" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4039,19 +4108,19 @@
         <v>85</v>
       </c>
       <c r="B106" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C106" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D106" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E106" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F106" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4059,19 +4128,19 @@
         <v>86</v>
       </c>
       <c r="B107" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C107" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D107" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E107" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F107" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4079,19 +4148,19 @@
         <v>87</v>
       </c>
       <c r="B108" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C108" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D108" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E108" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F108" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4099,19 +4168,19 @@
         <v>88</v>
       </c>
       <c r="B109" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C109" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D109" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E109" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F109" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4119,19 +4188,19 @@
         <v>89</v>
       </c>
       <c r="B110" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C110" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D110" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E110" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F110" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4139,19 +4208,19 @@
         <v>90</v>
       </c>
       <c r="B111" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C111" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D111" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E111" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F111" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4159,19 +4228,19 @@
         <v>91</v>
       </c>
       <c r="B112" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="C112" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D112" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E112" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F112" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4179,19 +4248,19 @@
         <v>92</v>
       </c>
       <c r="B113" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C113" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D113" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="E113" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="F113" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4199,19 +4268,19 @@
         <v>93</v>
       </c>
       <c r="B114" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C114" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D114" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="E114" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="F114" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4219,19 +4288,19 @@
         <v>94</v>
       </c>
       <c r="B115" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C115" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D115" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E115" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F115" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4239,19 +4308,19 @@
         <v>95</v>
       </c>
       <c r="B116" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C116" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D116" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E116" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F116" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4259,19 +4328,19 @@
         <v>96</v>
       </c>
       <c r="B117" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C117" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D117" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E117" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F117" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4279,19 +4348,19 @@
         <v>97</v>
       </c>
       <c r="B118" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C118" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D118" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E118" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F118" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4299,19 +4368,19 @@
         <v>98</v>
       </c>
       <c r="B119" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C119" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D119" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E119" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F119" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4319,19 +4388,19 @@
         <v>99</v>
       </c>
       <c r="B120" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C120" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D120" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E120" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F120" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4339,19 +4408,19 @@
         <v>100</v>
       </c>
       <c r="B121" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C121" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D121" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E121" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F121" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4359,19 +4428,19 @@
         <v>101</v>
       </c>
       <c r="B122" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C122" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D122" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E122" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F122" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4379,19 +4448,19 @@
         <v>102</v>
       </c>
       <c r="B123" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C123" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D123" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E123" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="F123" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4399,19 +4468,19 @@
         <v>103</v>
       </c>
       <c r="B124" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C124" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D124" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="E124" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="F124" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4419,19 +4488,19 @@
         <v>104</v>
       </c>
       <c r="B125" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C125" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D125" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E125" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F125" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4439,19 +4508,19 @@
         <v>105</v>
       </c>
       <c r="B126" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C126" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D126" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E126" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F126" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4459,19 +4528,19 @@
         <v>106</v>
       </c>
       <c r="B127" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C127" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D127" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="E127" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F127" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4479,19 +4548,19 @@
         <v>107</v>
       </c>
       <c r="B128" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C128" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D128" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E128" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F128" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4499,19 +4568,19 @@
         <v>108</v>
       </c>
       <c r="B129" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C129" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D129" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E129" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F129" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4519,19 +4588,19 @@
         <v>109</v>
       </c>
       <c r="B130" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C130" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D130" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E130" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F130" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4539,19 +4608,19 @@
         <v>110</v>
       </c>
       <c r="B131" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C131" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D131" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E131" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F131" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4559,19 +4628,19 @@
         <v>111</v>
       </c>
       <c r="B132" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C132" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D132" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E132" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F132" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4579,19 +4648,19 @@
         <v>112</v>
       </c>
       <c r="B133" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C133" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D133" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E133" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F133" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4599,19 +4668,19 @@
         <v>113</v>
       </c>
       <c r="B134" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C134" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D134" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E134" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F134" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4619,19 +4688,19 @@
         <v>114</v>
       </c>
       <c r="B135" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C135" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D135" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F135" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4639,19 +4708,19 @@
         <v>115</v>
       </c>
       <c r="B136" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C136" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D136" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F136" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4659,19 +4728,19 @@
         <v>116</v>
       </c>
       <c r="B137" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C137" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D137" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F137" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4679,19 +4748,19 @@
         <v>117</v>
       </c>
       <c r="B138" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C138" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D138" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F138" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4699,19 +4768,19 @@
         <v>118</v>
       </c>
       <c r="B139" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C139" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D139" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E139" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F139" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4719,19 +4788,19 @@
         <v>119</v>
       </c>
       <c r="B140" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C140" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D140" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E140" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F140" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4739,19 +4808,19 @@
         <v>120</v>
       </c>
       <c r="B141" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C141" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D141" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="E141" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F141" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4759,19 +4828,19 @@
         <v>121</v>
       </c>
       <c r="B142" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C142" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D142" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E142" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F142" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4779,19 +4848,19 @@
         <v>122</v>
       </c>
       <c r="B143" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C143" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D143" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E143" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F143" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4799,19 +4868,19 @@
         <v>123</v>
       </c>
       <c r="B144" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C144" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D144" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="E144" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4819,19 +4888,19 @@
         <v>124</v>
       </c>
       <c r="B145" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C145" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D145" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E145" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4839,16 +4908,19 @@
         <v>125</v>
       </c>
       <c r="B146" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C146" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D146" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E146" t="s">
-        <v>268</v>
+        <v>281</v>
+      </c>
+      <c r="F146" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4856,16 +4928,19 @@
         <v>126</v>
       </c>
       <c r="B147" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C147" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D147" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E147" t="s">
-        <v>268</v>
+        <v>280</v>
+      </c>
+      <c r="F147" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4873,16 +4948,19 @@
         <v>127</v>
       </c>
       <c r="B148" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C148" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D148" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E148" t="s">
-        <v>268</v>
+        <v>280</v>
+      </c>
+      <c r="F148" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4890,16 +4968,19 @@
         <v>128</v>
       </c>
       <c r="B149" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C149" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D149" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E149" t="s">
-        <v>268</v>
+        <v>280</v>
+      </c>
+      <c r="F149" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4907,16 +4988,19 @@
         <v>129</v>
       </c>
       <c r="B150" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C150" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D150" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E150" t="s">
-        <v>268</v>
+        <v>280</v>
+      </c>
+      <c r="F150" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4924,16 +5008,16 @@
         <v>130</v>
       </c>
       <c r="B151" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C151" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D151" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E151" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4941,16 +5025,16 @@
         <v>131</v>
       </c>
       <c r="B152" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C152" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D152" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E152" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4958,16 +5042,16 @@
         <v>132</v>
       </c>
       <c r="B153" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C153" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D153" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E153" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4975,16 +5059,16 @@
         <v>133</v>
       </c>
       <c r="B154" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C154" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D154" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E154" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4992,16 +5076,16 @@
         <v>134</v>
       </c>
       <c r="B155" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C155" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D155" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E155" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -5009,16 +5093,16 @@
         <v>135</v>
       </c>
       <c r="B156" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C156" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D156" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E156" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -5026,16 +5110,16 @@
         <v>136</v>
       </c>
       <c r="B157" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C157" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D157" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E157" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -5043,16 +5127,16 @@
         <v>137</v>
       </c>
       <c r="B158" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C158" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D158" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E158" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -5060,16 +5144,16 @@
         <v>138</v>
       </c>
       <c r="B159" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C159" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D159" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E159" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5077,16 +5161,16 @@
         <v>139</v>
       </c>
       <c r="B160" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C160" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D160" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E160" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -5094,16 +5178,16 @@
         <v>140</v>
       </c>
       <c r="B161" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C161" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D161" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E161" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5111,16 +5195,16 @@
         <v>141</v>
       </c>
       <c r="B162" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C162" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D162" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E162" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5128,16 +5212,16 @@
         <v>142</v>
       </c>
       <c r="B163" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C163" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D163" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E163" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5145,16 +5229,16 @@
         <v>143</v>
       </c>
       <c r="B164" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C164" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D164" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E164" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5162,19 +5246,16 @@
         <v>144</v>
       </c>
       <c r="B165" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C165" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="D165" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="E165" t="s">
-        <v>270</v>
-      </c>
-      <c r="F165" t="s">
-        <v>416</v>
+        <v>281</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5182,19 +5263,16 @@
         <v>145</v>
       </c>
       <c r="B166" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C166" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="D166" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E166" t="s">
-        <v>267</v>
-      </c>
-      <c r="F166" t="s">
-        <v>417</v>
+        <v>281</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5202,19 +5280,16 @@
         <v>146</v>
       </c>
       <c r="B167" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C167" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="D167" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="E167" t="s">
-        <v>267</v>
-      </c>
-      <c r="F167" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5222,19 +5297,16 @@
         <v>147</v>
       </c>
       <c r="B168" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C168" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="D168" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E168" t="s">
-        <v>267</v>
-      </c>
-      <c r="F168" t="s">
-        <v>419</v>
+        <v>281</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5242,19 +5314,16 @@
         <v>148</v>
       </c>
       <c r="B169" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C169" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D169" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E169" t="s">
-        <v>268</v>
-      </c>
-      <c r="F169" t="s">
-        <v>420</v>
+        <v>281</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5262,19 +5331,16 @@
         <v>149</v>
       </c>
       <c r="B170" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C170" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D170" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E170" t="s">
-        <v>268</v>
-      </c>
-      <c r="F170" t="s">
-        <v>421</v>
+        <v>281</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5282,19 +5348,16 @@
         <v>150</v>
       </c>
       <c r="B171" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C171" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D171" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E171" t="s">
-        <v>268</v>
-      </c>
-      <c r="F171" t="s">
-        <v>422</v>
+        <v>281</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5302,19 +5365,16 @@
         <v>151</v>
       </c>
       <c r="B172" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C172" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D172" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E172" t="s">
-        <v>268</v>
-      </c>
-      <c r="F172" t="s">
-        <v>423</v>
+        <v>281</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5322,19 +5382,19 @@
         <v>152</v>
       </c>
       <c r="B173" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C173" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D173" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="E173" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="F173" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5342,19 +5402,19 @@
         <v>153</v>
       </c>
       <c r="B174" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C174" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D174" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="E174" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F174" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5362,19 +5422,19 @@
         <v>154</v>
       </c>
       <c r="B175" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C175" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D175" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E175" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F175" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5382,19 +5442,19 @@
         <v>155</v>
       </c>
       <c r="B176" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C176" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D176" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E176" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F176" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5402,19 +5462,19 @@
         <v>156</v>
       </c>
       <c r="B177" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C177" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D177" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E177" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F177" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5422,19 +5482,19 @@
         <v>157</v>
       </c>
       <c r="B178" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C178" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D178" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E178" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F178" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5442,19 +5502,19 @@
         <v>158</v>
       </c>
       <c r="B179" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C179" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D179" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E179" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F179" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5462,19 +5522,19 @@
         <v>159</v>
       </c>
       <c r="B180" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C180" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D180" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E180" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F180" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5482,19 +5542,19 @@
         <v>160</v>
       </c>
       <c r="B181" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C181" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D181" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E181" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F181" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5502,19 +5562,19 @@
         <v>161</v>
       </c>
       <c r="B182" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C182" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D182" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E182" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F182" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5522,19 +5582,19 @@
         <v>162</v>
       </c>
       <c r="B183" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C183" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D183" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E183" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F183" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5542,19 +5602,19 @@
         <v>163</v>
       </c>
       <c r="B184" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C184" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D184" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E184" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F184" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5562,19 +5622,19 @@
         <v>164</v>
       </c>
       <c r="B185" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C185" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D185" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E185" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F185" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5582,19 +5642,19 @@
         <v>165</v>
       </c>
       <c r="B186" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C186" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D186" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E186" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F186" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5602,19 +5662,19 @@
         <v>166</v>
       </c>
       <c r="B187" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C187" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D187" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E187" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F187" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5622,19 +5682,19 @@
         <v>167</v>
       </c>
       <c r="B188" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C188" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D188" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="E188" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F188" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5642,19 +5702,19 @@
         <v>168</v>
       </c>
       <c r="B189" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C189" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D189" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E189" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F189" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5662,19 +5722,19 @@
         <v>169</v>
       </c>
       <c r="B190" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C190" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D190" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E190" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F190" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5682,19 +5742,19 @@
         <v>170</v>
       </c>
       <c r="B191" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C191" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D191" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E191" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F191" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5702,19 +5762,19 @@
         <v>171</v>
       </c>
       <c r="B192" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C192" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D192" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E192" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F192" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5722,19 +5782,19 @@
         <v>172</v>
       </c>
       <c r="B193" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C193" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D193" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E193" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F193" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5742,19 +5802,19 @@
         <v>173</v>
       </c>
       <c r="B194" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C194" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D194" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E194" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F194" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5762,19 +5822,19 @@
         <v>174</v>
       </c>
       <c r="B195" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C195" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D195" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E195" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F195" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5782,19 +5842,19 @@
         <v>175</v>
       </c>
       <c r="B196" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C196" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D196" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E196" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F196" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5802,19 +5862,19 @@
         <v>176</v>
       </c>
       <c r="B197" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C197" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D197" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E197" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F197" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5822,19 +5882,19 @@
         <v>177</v>
       </c>
       <c r="B198" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C198" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D198" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E198" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F198" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5842,19 +5902,19 @@
         <v>178</v>
       </c>
       <c r="B199" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C199" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D199" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="E199" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F199" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5862,19 +5922,19 @@
         <v>179</v>
       </c>
       <c r="B200" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C200" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D200" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E200" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F200" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5882,19 +5942,19 @@
         <v>180</v>
       </c>
       <c r="B201" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C201" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D201" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E201" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F201" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5902,19 +5962,19 @@
         <v>181</v>
       </c>
       <c r="B202" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C202" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D202" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E202" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F202" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5922,19 +5982,19 @@
         <v>182</v>
       </c>
       <c r="B203" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C203" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D203" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E203" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F203" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5942,19 +6002,19 @@
         <v>183</v>
       </c>
       <c r="B204" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C204" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D204" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E204" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F204" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5962,19 +6022,19 @@
         <v>184</v>
       </c>
       <c r="B205" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C205" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D205" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E205" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F205" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5982,19 +6042,19 @@
         <v>185</v>
       </c>
       <c r="B206" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C206" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D206" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E206" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F206" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -6002,19 +6062,19 @@
         <v>186</v>
       </c>
       <c r="B207" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C207" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D207" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E207" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F207" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -6022,19 +6082,19 @@
         <v>187</v>
       </c>
       <c r="B208" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C208" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D208" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E208" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F208" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -6042,19 +6102,19 @@
         <v>188</v>
       </c>
       <c r="B209" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C209" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D209" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E209" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F209" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -6062,19 +6122,19 @@
         <v>189</v>
       </c>
       <c r="B210" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C210" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D210" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E210" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F210" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -6082,19 +6142,19 @@
         <v>190</v>
       </c>
       <c r="B211" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C211" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D211" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E211" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F211" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -6102,19 +6162,19 @@
         <v>191</v>
       </c>
       <c r="B212" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C212" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D212" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E212" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F212" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -6122,19 +6182,19 @@
         <v>192</v>
       </c>
       <c r="B213" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C213" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D213" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E213" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F213" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6142,19 +6202,19 @@
         <v>193</v>
       </c>
       <c r="B214" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C214" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D214" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E214" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F214" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6162,19 +6222,19 @@
         <v>194</v>
       </c>
       <c r="B215" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C215" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D215" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E215" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F215" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6182,19 +6242,19 @@
         <v>195</v>
       </c>
       <c r="B216" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C216" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D216" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E216" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F216" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6202,19 +6262,19 @@
         <v>196</v>
       </c>
       <c r="B217" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C217" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D217" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E217" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F217" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6222,19 +6282,19 @@
         <v>197</v>
       </c>
       <c r="B218" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C218" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D218" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E218" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F218" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6242,19 +6302,19 @@
         <v>198</v>
       </c>
       <c r="B219" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C219" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D219" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E219" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F219" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6262,19 +6322,19 @@
         <v>199</v>
       </c>
       <c r="B220" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C220" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D220" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E220" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F220" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6282,19 +6342,19 @@
         <v>200</v>
       </c>
       <c r="B221" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C221" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D221" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E221" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F221" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6302,19 +6362,19 @@
         <v>201</v>
       </c>
       <c r="B222" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C222" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D222" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="E222" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F222" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6322,19 +6382,19 @@
         <v>202</v>
       </c>
       <c r="B223" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C223" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D223" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="E223" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F223" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6342,19 +6402,19 @@
         <v>203</v>
       </c>
       <c r="B224" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C224" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D224" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E224" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F224" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6362,19 +6422,19 @@
         <v>204</v>
       </c>
       <c r="B225" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C225" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D225" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E225" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="F225" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -6382,19 +6442,19 @@
         <v>205</v>
       </c>
       <c r="B226" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C226" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D226" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="E226" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F226" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -6402,19 +6462,19 @@
         <v>206</v>
       </c>
       <c r="B227" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C227" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D227" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E227" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="F227" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -6422,19 +6482,19 @@
         <v>207</v>
       </c>
       <c r="B228" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C228" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D228" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E228" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F228" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6442,19 +6502,19 @@
         <v>208</v>
       </c>
       <c r="B229" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C229" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D229" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E229" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F229" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -6462,19 +6522,19 @@
         <v>209</v>
       </c>
       <c r="B230" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C230" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D230" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E230" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F230" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6482,19 +6542,19 @@
         <v>210</v>
       </c>
       <c r="B231" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C231" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D231" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E231" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F231" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6502,19 +6562,19 @@
         <v>211</v>
       </c>
       <c r="B232" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C232" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D232" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="E232" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F232" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6522,19 +6582,19 @@
         <v>212</v>
       </c>
       <c r="B233" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C233" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D233" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="E233" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F233" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6542,19 +6602,19 @@
         <v>213</v>
       </c>
       <c r="B234" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C234" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D234" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E234" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F234" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6562,19 +6622,19 @@
         <v>214</v>
       </c>
       <c r="B235" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="C235" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D235" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E235" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F235" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6582,19 +6642,19 @@
         <v>215</v>
       </c>
       <c r="B236" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C236" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D236" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E236" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F236" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6602,19 +6662,19 @@
         <v>216</v>
       </c>
       <c r="B237" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C237" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D237" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="E237" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F237" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6622,19 +6682,19 @@
         <v>217</v>
       </c>
       <c r="B238" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C238" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D238" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="E238" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="F238" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6642,19 +6702,19 @@
         <v>218</v>
       </c>
       <c r="B239" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C239" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D239" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E239" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F239" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6662,19 +6722,19 @@
         <v>219</v>
       </c>
       <c r="B240" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C240" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D240" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="E240" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="F240" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6682,19 +6742,19 @@
         <v>220</v>
       </c>
       <c r="B241" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C241" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D241" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="E241" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F241" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6702,19 +6762,19 @@
         <v>221</v>
       </c>
       <c r="B242" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C242" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D242" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E242" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F242" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6722,19 +6782,19 @@
         <v>222</v>
       </c>
       <c r="B243" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C243" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D243" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E243" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="F243" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6742,19 +6802,19 @@
         <v>223</v>
       </c>
       <c r="B244" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C244" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D244" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E244" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="F244" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6762,19 +6822,19 @@
         <v>224</v>
       </c>
       <c r="B245" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C245" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D245" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E245" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F245" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6782,19 +6842,19 @@
         <v>225</v>
       </c>
       <c r="B246" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C246" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D246" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="E246" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F246" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6802,19 +6862,19 @@
         <v>226</v>
       </c>
       <c r="B247" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C247" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D247" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="E247" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F247" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6822,19 +6882,19 @@
         <v>227</v>
       </c>
       <c r="B248" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C248" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D248" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E248" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F248" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6842,19 +6902,19 @@
         <v>228</v>
       </c>
       <c r="B249" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C249" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D249" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="E249" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F249" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6862,19 +6922,19 @@
         <v>229</v>
       </c>
       <c r="B250" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C250" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D250" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="E250" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F250" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6882,19 +6942,19 @@
         <v>230</v>
       </c>
       <c r="B251" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C251" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D251" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E251" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F251" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6902,19 +6962,19 @@
         <v>231</v>
       </c>
       <c r="B252" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C252" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D252" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E252" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F252" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6922,19 +6982,19 @@
         <v>232</v>
       </c>
       <c r="B253" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C253" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D253" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E253" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F253" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6942,19 +7002,19 @@
         <v>233</v>
       </c>
       <c r="B254" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C254" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D254" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E254" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="F254" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6962,19 +7022,19 @@
         <v>234</v>
       </c>
       <c r="B255" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C255" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D255" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="E255" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F255" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6982,19 +7042,19 @@
         <v>235</v>
       </c>
       <c r="B256" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C256" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D256" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E256" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="F256" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -7002,19 +7062,19 @@
         <v>236</v>
       </c>
       <c r="B257" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C257" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D257" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E257" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="F257" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -7022,19 +7082,19 @@
         <v>237</v>
       </c>
       <c r="B258" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C258" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D258" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E258" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="F258" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -7042,19 +7102,19 @@
         <v>238</v>
       </c>
       <c r="B259" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C259" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D259" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="E259" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F259" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -7062,16 +7122,19 @@
         <v>239</v>
       </c>
       <c r="B260" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C260" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D260" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="E260" t="s">
-        <v>268</v>
+        <v>280</v>
+      </c>
+      <c r="F260" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -7079,19 +7142,19 @@
         <v>240</v>
       </c>
       <c r="B261" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D261" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="E261" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F261" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -7099,19 +7162,19 @@
         <v>241</v>
       </c>
       <c r="B262" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D262" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E262" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F262" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -7119,19 +7182,19 @@
         <v>242</v>
       </c>
       <c r="B263" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D263" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="E263" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F263" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -7139,19 +7202,19 @@
         <v>243</v>
       </c>
       <c r="B264" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C264" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D264" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E264" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="F264" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -7159,19 +7222,19 @@
         <v>244</v>
       </c>
       <c r="B265" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C265" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D265" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E265" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F265" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -7179,19 +7242,19 @@
         <v>245</v>
       </c>
       <c r="B266" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C266" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D266" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E266" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F266" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -7199,19 +7262,19 @@
         <v>246</v>
       </c>
       <c r="B267" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C267" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D267" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="E267" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="F267" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -7219,19 +7282,276 @@
         <v>247</v>
       </c>
       <c r="B268" t="s">
+        <v>264</v>
+      </c>
+      <c r="C268" t="s">
+        <v>267</v>
+      </c>
+      <c r="D268" t="s">
+        <v>271</v>
+      </c>
+      <c r="E268" t="s">
+        <v>280</v>
+      </c>
+      <c r="F268" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" t="s">
+        <v>248</v>
+      </c>
+      <c r="B269" t="s">
+        <v>264</v>
+      </c>
+      <c r="C269" t="s">
+        <v>267</v>
+      </c>
+      <c r="D269" t="s">
+        <v>276</v>
+      </c>
+      <c r="E269" t="s">
+        <v>283</v>
+      </c>
+      <c r="F269" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" t="s">
+        <v>249</v>
+      </c>
+      <c r="B270" t="s">
+        <v>264</v>
+      </c>
+      <c r="C270" t="s">
+        <v>267</v>
+      </c>
+      <c r="D270" t="s">
+        <v>276</v>
+      </c>
+      <c r="E270" t="s">
+        <v>283</v>
+      </c>
+      <c r="F270" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" t="s">
+        <v>250</v>
+      </c>
+      <c r="B271" t="s">
+        <v>264</v>
+      </c>
+      <c r="C271" t="s">
+        <v>267</v>
+      </c>
+      <c r="D271" t="s">
+        <v>278</v>
+      </c>
+      <c r="E271" t="s">
+        <v>284</v>
+      </c>
+      <c r="F271" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" t="s">
         <v>251</v>
       </c>
-      <c r="C268" t="s">
+      <c r="B272" t="s">
+        <v>264</v>
+      </c>
+      <c r="C272" t="s">
+        <v>267</v>
+      </c>
+      <c r="D272" t="s">
+        <v>271</v>
+      </c>
+      <c r="E272" t="s">
+        <v>280</v>
+      </c>
+      <c r="F272" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" t="s">
+        <v>252</v>
+      </c>
+      <c r="B273" t="s">
+        <v>264</v>
+      </c>
+      <c r="C273" t="s">
+        <v>269</v>
+      </c>
+      <c r="D273" t="s">
+        <v>272</v>
+      </c>
+      <c r="E273" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" t="s">
+        <v>253</v>
+      </c>
+      <c r="B274" t="s">
+        <v>264</v>
+      </c>
+      <c r="C274" t="s">
+        <v>267</v>
+      </c>
+      <c r="D274" t="s">
+        <v>271</v>
+      </c>
+      <c r="E274" t="s">
+        <v>280</v>
+      </c>
+      <c r="F274" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" t="s">
         <v>254</v>
       </c>
-      <c r="D268" t="s">
+      <c r="B275" t="s">
+        <v>264</v>
+      </c>
+      <c r="C275" t="s">
+        <v>267</v>
+      </c>
+      <c r="D275" t="s">
+        <v>270</v>
+      </c>
+      <c r="E275" t="s">
+        <v>280</v>
+      </c>
+      <c r="F275" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" t="s">
+        <v>255</v>
+      </c>
+      <c r="B276" t="s">
+        <v>264</v>
+      </c>
+      <c r="C276" t="s">
+        <v>267</v>
+      </c>
+      <c r="D276" t="s">
+        <v>270</v>
+      </c>
+      <c r="E276" t="s">
+        <v>280</v>
+      </c>
+      <c r="F276" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" t="s">
+        <v>256</v>
+      </c>
+      <c r="B277" t="s">
+        <v>264</v>
+      </c>
+      <c r="C277" t="s">
+        <v>267</v>
+      </c>
+      <c r="D277" t="s">
+        <v>278</v>
+      </c>
+      <c r="E277" t="s">
+        <v>284</v>
+      </c>
+      <c r="F277" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" t="s">
+        <v>257</v>
+      </c>
+      <c r="B278" t="s">
+        <v>264</v>
+      </c>
+      <c r="C278" t="s">
+        <v>267</v>
+      </c>
+      <c r="D278" t="s">
+        <v>271</v>
+      </c>
+      <c r="E278" t="s">
+        <v>280</v>
+      </c>
+      <c r="F278" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" t="s">
         <v>258</v>
       </c>
-      <c r="E268" t="s">
-        <v>267</v>
-      </c>
-      <c r="F268" t="s">
-        <v>518</v>
+      <c r="B279" t="s">
+        <v>264</v>
+      </c>
+      <c r="C279" t="s">
+        <v>267</v>
+      </c>
+      <c r="D279" t="s">
+        <v>271</v>
+      </c>
+      <c r="E279" t="s">
+        <v>280</v>
+      </c>
+      <c r="F279" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" t="s">
+        <v>259</v>
+      </c>
+      <c r="B280" t="s">
+        <v>264</v>
+      </c>
+      <c r="C280" t="s">
+        <v>267</v>
+      </c>
+      <c r="D280" t="s">
+        <v>270</v>
+      </c>
+      <c r="E280" t="s">
+        <v>280</v>
+      </c>
+      <c r="F280" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" t="s">
+        <v>260</v>
+      </c>
+      <c r="B281" t="s">
+        <v>264</v>
+      </c>
+      <c r="C281" t="s">
+        <v>267</v>
+      </c>
+      <c r="D281" t="s">
+        <v>271</v>
+      </c>
+      <c r="E281" t="s">
+        <v>280</v>
+      </c>
+      <c r="F281" t="s">
+        <v>541</v>
       </c>
     </row>
   </sheetData>

--- a/1. Reporting_Data/IB_Daily Ticker/Ticker_Master.xlsx
+++ b/1. Reporting_Data/IB_Daily Ticker/Ticker_Master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="552">
   <si>
     <t>Symbol</t>
   </si>
@@ -340,6 +340,15 @@
     <t>JPM 21JAN28 310 P</t>
   </si>
   <si>
+    <t>JPM 21JAN28 320 C</t>
+  </si>
+  <si>
+    <t>JPM 21JAN28 330 C</t>
+  </si>
+  <si>
+    <t>JPM 21JAN28 330 P</t>
+  </si>
+  <si>
     <t>JPM 21JAN28 460 P</t>
   </si>
   <si>
@@ -784,6 +793,12 @@
     <t>VST</t>
   </si>
   <si>
+    <t>VST 21JAN28 185 P</t>
+  </si>
+  <si>
+    <t>VST 21JAN28 320 C</t>
+  </si>
+  <si>
     <t>VTIP</t>
   </si>
   <si>
@@ -1252,6 +1267,15 @@
     <t>JPM US 01/21/28 P310 Equity</t>
   </si>
   <si>
+    <t>JPM US 01/21/28 C320 Equity</t>
+  </si>
+  <si>
+    <t>JPM US 01/21/28 C330 Equity</t>
+  </si>
+  <si>
+    <t>JPM US 01/21/28 P330 Equity</t>
+  </si>
+  <si>
     <t>JPM US 01/21/28 P460 Equity</t>
   </si>
   <si>
@@ -1625,6 +1649,12 @@
   </si>
   <si>
     <t>VST US Equity</t>
+  </si>
+  <si>
+    <t>VST US 01/21/28 P185 Equity</t>
+  </si>
+  <si>
+    <t>VST US 01/21/28 C320 Equity</t>
   </si>
   <si>
     <t>VTIP US Equity</t>
@@ -1997,7 +2027,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F281"/>
+  <dimension ref="A1:F286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2028,19 +2058,19 @@
         <v>1109</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2048,19 +2078,19 @@
         <v>1258</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2068,19 +2098,19 @@
         <v>1288</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F4" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2088,19 +2118,19 @@
         <v>1398</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C5" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F5" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2108,19 +2138,19 @@
         <v>1698</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C6" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D6" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F6" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2128,19 +2158,19 @@
         <v>1810</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2148,19 +2178,19 @@
         <v>2097</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C8" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F8" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2168,19 +2198,19 @@
         <v>2359</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C9" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D9" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E9" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F9" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2188,19 +2218,19 @@
         <v>2800</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C10" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E10" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F10" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2208,19 +2238,19 @@
         <v>2828</v>
       </c>
       <c r="B11" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D11" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E11" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F11" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2228,19 +2258,19 @@
         <v>2899</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C12" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D12" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E12" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F12" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2248,19 +2278,19 @@
         <v>3067</v>
       </c>
       <c r="B13" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C13" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D13" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E13" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F13" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2268,19 +2298,19 @@
         <v>3750</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C14" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D14" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E14" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F14" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2288,19 +2318,19 @@
         <v>388</v>
       </c>
       <c r="B15" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C15" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D15" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E15" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F15" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2308,19 +2338,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C16" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D16" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E16" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F16" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2328,19 +2358,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C17" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D17" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E17" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F17" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2348,19 +2378,19 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C18" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D18" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E18" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F18" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2368,19 +2398,19 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C19" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D19" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E19" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F19" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2388,19 +2418,19 @@
         <v>3888</v>
       </c>
       <c r="B20" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C20" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D20" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E20" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F20" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2408,19 +2438,19 @@
         <v>3988</v>
       </c>
       <c r="B21" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C21" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D21" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E21" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F21" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2428,19 +2458,19 @@
         <v>44075</v>
       </c>
       <c r="B22" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C22" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D22" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E22" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F22" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2448,19 +2478,19 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C23" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D23" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E23" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F23" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2468,19 +2498,19 @@
         <v>700</v>
       </c>
       <c r="B24" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C24" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D24" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E24" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F24" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2488,19 +2518,19 @@
         <v>762</v>
       </c>
       <c r="B25" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C25" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D25" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E25" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F25" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2508,19 +2538,19 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C26" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D26" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E26" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F26" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2528,19 +2558,19 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C27" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D27" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E27" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F27" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2548,19 +2578,19 @@
         <v>857</v>
       </c>
       <c r="B28" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C28" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D28" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E28" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F28" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2568,19 +2598,19 @@
         <v>883</v>
       </c>
       <c r="B29" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C29" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D29" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E29" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F29" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2588,19 +2618,19 @@
         <v>941</v>
       </c>
       <c r="B30" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C30" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D30" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E30" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F30" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2608,19 +2638,19 @@
         <v>9633</v>
       </c>
       <c r="B31" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C31" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D31" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E31" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F31" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2628,19 +2658,19 @@
         <v>981</v>
       </c>
       <c r="B32" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C32" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D32" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E32" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F32" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2648,19 +2678,19 @@
         <v>9961</v>
       </c>
       <c r="B33" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C33" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D33" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E33" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F33" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2668,19 +2698,19 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C34" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D34" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E34" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F34" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2688,19 +2718,19 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C35" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D35" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E35" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F35" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2708,19 +2738,19 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C36" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D36" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E36" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F36" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2728,19 +2758,19 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C37" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D37" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E37" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F37" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2748,19 +2778,19 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C38" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D38" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E38" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F38" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2768,19 +2798,19 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C39" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D39" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E39" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F39" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2788,19 +2818,19 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C40" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D40" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E40" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F40" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2808,19 +2838,19 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C41" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D41" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E41" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F41" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2828,19 +2858,19 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C42" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D42" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E42" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F42" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2848,19 +2878,19 @@
         <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C43" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D43" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E43" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F43" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2868,19 +2898,19 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C44" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D44" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E44" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F44" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2888,19 +2918,19 @@
         <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C45" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D45" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E45" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F45" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2908,19 +2938,19 @@
         <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C46" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D46" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E46" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F46" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2928,19 +2958,19 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C47" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D47" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E47" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F47" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2948,19 +2978,19 @@
         <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C48" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D48" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E48" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F48" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2968,19 +2998,19 @@
         <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C49" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D49" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E49" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F49" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2988,19 +3018,19 @@
         <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C50" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D50" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E50" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F50" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3008,19 +3038,19 @@
         <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C51" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D51" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E51" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F51" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3028,19 +3058,19 @@
         <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C52" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D52" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E52" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F52" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3048,19 +3078,19 @@
         <v>32</v>
       </c>
       <c r="B53" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C53" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D53" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E53" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F53" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3068,19 +3098,19 @@
         <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C54" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D54" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E54" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F54" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3088,19 +3118,19 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C55" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D55" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E55" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F55" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3108,19 +3138,19 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C56" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D56" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E56" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F56" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3128,19 +3158,19 @@
         <v>36</v>
       </c>
       <c r="B57" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C57" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D57" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E57" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F57" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3148,19 +3178,19 @@
         <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C58" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D58" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E58" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F58" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3168,19 +3198,19 @@
         <v>38</v>
       </c>
       <c r="B59" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C59" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D59" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E59" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F59" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3188,19 +3218,19 @@
         <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C60" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D60" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E60" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F60" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3208,19 +3238,19 @@
         <v>40</v>
       </c>
       <c r="B61" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C61" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D61" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E61" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F61" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3228,19 +3258,19 @@
         <v>41</v>
       </c>
       <c r="B62" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C62" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D62" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E62" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F62" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3248,19 +3278,19 @@
         <v>42</v>
       </c>
       <c r="B63" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C63" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D63" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E63" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F63" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3268,19 +3298,19 @@
         <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C64" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D64" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E64" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F64" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3288,19 +3318,19 @@
         <v>44</v>
       </c>
       <c r="B65" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C65" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D65" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E65" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F65" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3308,19 +3338,19 @@
         <v>45</v>
       </c>
       <c r="B66" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C66" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D66" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E66" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F66" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3328,19 +3358,19 @@
         <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C67" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D67" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E67" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F67" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3348,19 +3378,19 @@
         <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C68" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D68" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E68" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F68" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3368,19 +3398,19 @@
         <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C69" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D69" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E69" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F69" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3388,19 +3418,19 @@
         <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C70" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D70" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E70" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F70" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3408,19 +3438,19 @@
         <v>50</v>
       </c>
       <c r="B71" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C71" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D71" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E71" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F71" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3428,19 +3458,19 @@
         <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C72" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D72" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E72" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F72" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3448,19 +3478,19 @@
         <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C73" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D73" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E73" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F73" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3468,19 +3498,19 @@
         <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C74" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D74" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E74" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F74" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3488,19 +3518,19 @@
         <v>54</v>
       </c>
       <c r="B75" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C75" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D75" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E75" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F75" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3508,19 +3538,19 @@
         <v>55</v>
       </c>
       <c r="B76" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C76" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D76" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E76" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F76" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3528,19 +3558,19 @@
         <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C77" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D77" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E77" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F77" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3548,19 +3578,19 @@
         <v>57</v>
       </c>
       <c r="B78" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C78" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D78" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E78" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F78" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3568,19 +3598,19 @@
         <v>58</v>
       </c>
       <c r="B79" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C79" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D79" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E79" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F79" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3588,19 +3618,19 @@
         <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C80" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D80" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E80" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F80" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3608,19 +3638,19 @@
         <v>60</v>
       </c>
       <c r="B81" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C81" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D81" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E81" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F81" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3628,19 +3658,19 @@
         <v>61</v>
       </c>
       <c r="B82" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C82" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D82" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E82" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F82" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3648,19 +3678,19 @@
         <v>62</v>
       </c>
       <c r="B83" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C83" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D83" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E83" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F83" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3668,19 +3698,19 @@
         <v>63</v>
       </c>
       <c r="B84" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C84" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D84" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E84" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F84" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3688,19 +3718,19 @@
         <v>64</v>
       </c>
       <c r="B85" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C85" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D85" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E85" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F85" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3708,19 +3738,19 @@
         <v>65</v>
       </c>
       <c r="B86" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C86" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D86" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E86" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F86" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3728,19 +3758,19 @@
         <v>66</v>
       </c>
       <c r="B87" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C87" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D87" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E87" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F87" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3748,19 +3778,19 @@
         <v>67</v>
       </c>
       <c r="B88" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C88" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D88" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E88" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F88" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3768,19 +3798,19 @@
         <v>68</v>
       </c>
       <c r="B89" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C89" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D89" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E89" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F89" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3788,19 +3818,19 @@
         <v>69</v>
       </c>
       <c r="B90" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C90" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D90" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E90" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F90" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3808,19 +3838,19 @@
         <v>70</v>
       </c>
       <c r="B91" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C91" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D91" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E91" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F91" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3828,19 +3858,19 @@
         <v>71</v>
       </c>
       <c r="B92" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C92" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D92" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E92" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F92" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3848,19 +3878,19 @@
         <v>72</v>
       </c>
       <c r="B93" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C93" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D93" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E93" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F93" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3868,19 +3898,19 @@
         <v>73</v>
       </c>
       <c r="B94" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C94" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D94" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E94" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F94" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3888,19 +3918,19 @@
         <v>74</v>
       </c>
       <c r="B95" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C95" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D95" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E95" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F95" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3908,19 +3938,19 @@
         <v>75</v>
       </c>
       <c r="B96" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C96" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D96" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E96" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F96" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3928,19 +3958,19 @@
         <v>76</v>
       </c>
       <c r="B97" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C97" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D97" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E97" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F97" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3948,19 +3978,19 @@
         <v>77</v>
       </c>
       <c r="B98" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C98" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D98" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E98" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F98" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3968,19 +3998,19 @@
         <v>78</v>
       </c>
       <c r="B99" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C99" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D99" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E99" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F99" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3988,19 +4018,19 @@
         <v>79</v>
       </c>
       <c r="B100" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C100" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D100" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E100" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F100" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4008,19 +4038,19 @@
         <v>80</v>
       </c>
       <c r="B101" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C101" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D101" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E101" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F101" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4028,19 +4058,19 @@
         <v>81</v>
       </c>
       <c r="B102" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C102" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D102" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E102" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F102" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4048,19 +4078,19 @@
         <v>82</v>
       </c>
       <c r="B103" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C103" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D103" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E103" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F103" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4068,19 +4098,19 @@
         <v>83</v>
       </c>
       <c r="B104" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C104" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D104" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E104" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F104" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4088,19 +4118,19 @@
         <v>84</v>
       </c>
       <c r="B105" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C105" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D105" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E105" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F105" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4108,19 +4138,19 @@
         <v>85</v>
       </c>
       <c r="B106" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C106" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D106" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E106" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F106" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4128,19 +4158,19 @@
         <v>86</v>
       </c>
       <c r="B107" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C107" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D107" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E107" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F107" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4148,19 +4178,19 @@
         <v>87</v>
       </c>
       <c r="B108" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C108" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D108" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E108" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F108" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4168,19 +4198,19 @@
         <v>88</v>
       </c>
       <c r="B109" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C109" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D109" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E109" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F109" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4188,19 +4218,19 @@
         <v>89</v>
       </c>
       <c r="B110" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C110" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D110" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E110" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F110" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4208,19 +4238,19 @@
         <v>90</v>
       </c>
       <c r="B111" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C111" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D111" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E111" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F111" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4228,19 +4258,19 @@
         <v>91</v>
       </c>
       <c r="B112" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C112" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D112" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E112" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F112" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4248,19 +4278,19 @@
         <v>92</v>
       </c>
       <c r="B113" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C113" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D113" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E113" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F113" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4268,19 +4298,19 @@
         <v>93</v>
       </c>
       <c r="B114" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C114" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D114" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E114" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F114" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4288,19 +4318,19 @@
         <v>94</v>
       </c>
       <c r="B115" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C115" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D115" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E115" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F115" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4308,19 +4338,19 @@
         <v>95</v>
       </c>
       <c r="B116" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C116" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D116" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E116" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F116" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4328,19 +4358,19 @@
         <v>96</v>
       </c>
       <c r="B117" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C117" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D117" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E117" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F117" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4348,19 +4378,19 @@
         <v>97</v>
       </c>
       <c r="B118" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C118" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D118" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E118" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F118" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4368,19 +4398,19 @@
         <v>98</v>
       </c>
       <c r="B119" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C119" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D119" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E119" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F119" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4388,19 +4418,19 @@
         <v>99</v>
       </c>
       <c r="B120" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C120" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D120" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E120" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F120" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4408,19 +4438,19 @@
         <v>100</v>
       </c>
       <c r="B121" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C121" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D121" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E121" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F121" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4428,19 +4458,19 @@
         <v>101</v>
       </c>
       <c r="B122" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C122" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D122" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E122" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F122" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4448,19 +4478,19 @@
         <v>102</v>
       </c>
       <c r="B123" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C123" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D123" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E123" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F123" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4468,19 +4498,19 @@
         <v>103</v>
       </c>
       <c r="B124" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C124" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D124" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E124" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F124" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4488,19 +4518,19 @@
         <v>104</v>
       </c>
       <c r="B125" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C125" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D125" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E125" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F125" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4508,19 +4538,19 @@
         <v>105</v>
       </c>
       <c r="B126" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C126" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D126" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E126" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F126" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4528,19 +4558,19 @@
         <v>106</v>
       </c>
       <c r="B127" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C127" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D127" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E127" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F127" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4548,19 +4578,19 @@
         <v>107</v>
       </c>
       <c r="B128" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C128" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D128" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E128" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F128" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4568,19 +4598,19 @@
         <v>108</v>
       </c>
       <c r="B129" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C129" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D129" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E129" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F129" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4588,19 +4618,19 @@
         <v>109</v>
       </c>
       <c r="B130" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C130" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D130" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E130" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F130" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4608,19 +4638,19 @@
         <v>110</v>
       </c>
       <c r="B131" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C131" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D131" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E131" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F131" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4628,19 +4658,19 @@
         <v>111</v>
       </c>
       <c r="B132" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C132" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D132" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E132" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F132" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4648,19 +4678,19 @@
         <v>112</v>
       </c>
       <c r="B133" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C133" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D133" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E133" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F133" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4668,19 +4698,19 @@
         <v>113</v>
       </c>
       <c r="B134" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C134" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D134" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E134" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F134" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4688,19 +4718,19 @@
         <v>114</v>
       </c>
       <c r="B135" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C135" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D135" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E135" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F135" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4708,19 +4738,19 @@
         <v>115</v>
       </c>
       <c r="B136" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C136" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D136" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E136" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F136" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4728,19 +4758,19 @@
         <v>116</v>
       </c>
       <c r="B137" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C137" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D137" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E137" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F137" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4748,19 +4778,19 @@
         <v>117</v>
       </c>
       <c r="B138" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C138" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D138" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E138" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F138" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4768,19 +4798,19 @@
         <v>118</v>
       </c>
       <c r="B139" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C139" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D139" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E139" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F139" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4788,19 +4818,19 @@
         <v>119</v>
       </c>
       <c r="B140" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C140" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D140" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E140" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F140" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4808,19 +4838,19 @@
         <v>120</v>
       </c>
       <c r="B141" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C141" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D141" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E141" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F141" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4828,19 +4858,19 @@
         <v>121</v>
       </c>
       <c r="B142" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C142" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D142" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E142" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F142" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4848,19 +4878,19 @@
         <v>122</v>
       </c>
       <c r="B143" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C143" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D143" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E143" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F143" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4868,19 +4898,19 @@
         <v>123</v>
       </c>
       <c r="B144" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C144" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D144" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F144" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4888,19 +4918,19 @@
         <v>124</v>
       </c>
       <c r="B145" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C145" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D145" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F145" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4908,19 +4938,19 @@
         <v>125</v>
       </c>
       <c r="B146" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C146" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D146" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4928,19 +4958,19 @@
         <v>126</v>
       </c>
       <c r="B147" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C147" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D147" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E147" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F147" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4948,19 +4978,19 @@
         <v>127</v>
       </c>
       <c r="B148" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C148" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D148" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E148" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F148" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4968,19 +4998,19 @@
         <v>128</v>
       </c>
       <c r="B149" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C149" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D149" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E149" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F149" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4988,19 +5018,19 @@
         <v>129</v>
       </c>
       <c r="B150" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C150" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D150" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E150" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F150" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -5008,16 +5038,19 @@
         <v>130</v>
       </c>
       <c r="B151" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C151" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D151" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E151" t="s">
-        <v>281</v>
+        <v>285</v>
+      </c>
+      <c r="F151" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -5025,16 +5058,19 @@
         <v>131</v>
       </c>
       <c r="B152" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C152" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D152" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E152" t="s">
-        <v>281</v>
+        <v>285</v>
+      </c>
+      <c r="F152" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -5042,16 +5078,19 @@
         <v>132</v>
       </c>
       <c r="B153" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C153" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D153" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E153" t="s">
-        <v>281</v>
+        <v>285</v>
+      </c>
+      <c r="F153" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -5059,16 +5098,16 @@
         <v>133</v>
       </c>
       <c r="B154" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C154" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D154" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E154" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -5076,16 +5115,16 @@
         <v>134</v>
       </c>
       <c r="B155" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C155" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D155" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E155" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -5093,16 +5132,16 @@
         <v>135</v>
       </c>
       <c r="B156" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C156" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D156" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E156" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -5110,16 +5149,16 @@
         <v>136</v>
       </c>
       <c r="B157" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C157" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D157" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E157" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -5127,16 +5166,16 @@
         <v>137</v>
       </c>
       <c r="B158" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C158" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D158" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E158" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -5144,16 +5183,16 @@
         <v>138</v>
       </c>
       <c r="B159" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C159" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D159" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E159" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5161,16 +5200,16 @@
         <v>139</v>
       </c>
       <c r="B160" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C160" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D160" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E160" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -5178,16 +5217,16 @@
         <v>140</v>
       </c>
       <c r="B161" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C161" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D161" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E161" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5195,16 +5234,16 @@
         <v>141</v>
       </c>
       <c r="B162" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C162" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D162" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E162" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5212,16 +5251,16 @@
         <v>142</v>
       </c>
       <c r="B163" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C163" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D163" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E163" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5229,16 +5268,16 @@
         <v>143</v>
       </c>
       <c r="B164" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C164" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D164" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E164" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5246,16 +5285,16 @@
         <v>144</v>
       </c>
       <c r="B165" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C165" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D165" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E165" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5263,16 +5302,16 @@
         <v>145</v>
       </c>
       <c r="B166" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C166" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D166" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E166" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5280,16 +5319,16 @@
         <v>146</v>
       </c>
       <c r="B167" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C167" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D167" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E167" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5297,16 +5336,16 @@
         <v>147</v>
       </c>
       <c r="B168" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C168" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D168" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E168" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5314,16 +5353,16 @@
         <v>148</v>
       </c>
       <c r="B169" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C169" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D169" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E169" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5331,16 +5370,16 @@
         <v>149</v>
       </c>
       <c r="B170" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C170" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D170" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E170" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5348,16 +5387,16 @@
         <v>150</v>
       </c>
       <c r="B171" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C171" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D171" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E171" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5365,16 +5404,16 @@
         <v>151</v>
       </c>
       <c r="B172" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C172" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D172" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E172" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5382,19 +5421,16 @@
         <v>152</v>
       </c>
       <c r="B173" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C173" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D173" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E173" t="s">
-        <v>283</v>
-      </c>
-      <c r="F173" t="s">
-        <v>434</v>
+        <v>286</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5402,19 +5438,16 @@
         <v>153</v>
       </c>
       <c r="B174" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C174" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D174" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E174" t="s">
-        <v>280</v>
-      </c>
-      <c r="F174" t="s">
-        <v>435</v>
+        <v>286</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5422,19 +5455,16 @@
         <v>154</v>
       </c>
       <c r="B175" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C175" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D175" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E175" t="s">
-        <v>280</v>
-      </c>
-      <c r="F175" t="s">
-        <v>436</v>
+        <v>286</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5442,19 +5472,19 @@
         <v>155</v>
       </c>
       <c r="B176" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C176" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D176" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="E176" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="F176" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5462,19 +5492,19 @@
         <v>156</v>
       </c>
       <c r="B177" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C177" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D177" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E177" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F177" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5482,19 +5512,19 @@
         <v>157</v>
       </c>
       <c r="B178" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C178" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D178" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E178" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F178" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5502,19 +5532,19 @@
         <v>158</v>
       </c>
       <c r="B179" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C179" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D179" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E179" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F179" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5522,19 +5552,19 @@
         <v>159</v>
       </c>
       <c r="B180" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C180" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D180" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E180" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F180" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5542,19 +5572,19 @@
         <v>160</v>
       </c>
       <c r="B181" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C181" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D181" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E181" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F181" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5562,19 +5592,19 @@
         <v>161</v>
       </c>
       <c r="B182" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C182" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D182" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E182" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F182" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5582,19 +5612,19 @@
         <v>162</v>
       </c>
       <c r="B183" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C183" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D183" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E183" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F183" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5602,19 +5632,19 @@
         <v>163</v>
       </c>
       <c r="B184" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C184" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D184" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E184" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F184" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5622,19 +5652,19 @@
         <v>164</v>
       </c>
       <c r="B185" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C185" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D185" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E185" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F185" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5642,19 +5672,19 @@
         <v>165</v>
       </c>
       <c r="B186" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C186" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D186" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E186" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F186" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5662,19 +5692,19 @@
         <v>166</v>
       </c>
       <c r="B187" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C187" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D187" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E187" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F187" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5682,19 +5712,19 @@
         <v>167</v>
       </c>
       <c r="B188" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C188" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D188" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E188" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F188" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5702,19 +5732,19 @@
         <v>168</v>
       </c>
       <c r="B189" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C189" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D189" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E189" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F189" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5722,19 +5752,19 @@
         <v>169</v>
       </c>
       <c r="B190" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C190" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D190" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E190" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F190" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5742,19 +5772,19 @@
         <v>170</v>
       </c>
       <c r="B191" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C191" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D191" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="E191" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F191" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5762,19 +5792,19 @@
         <v>171</v>
       </c>
       <c r="B192" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C192" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D192" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E192" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F192" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5782,19 +5812,19 @@
         <v>172</v>
       </c>
       <c r="B193" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C193" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D193" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E193" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F193" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5802,19 +5832,19 @@
         <v>173</v>
       </c>
       <c r="B194" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C194" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D194" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E194" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F194" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5822,19 +5852,19 @@
         <v>174</v>
       </c>
       <c r="B195" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C195" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D195" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E195" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F195" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5842,19 +5872,19 @@
         <v>175</v>
       </c>
       <c r="B196" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C196" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D196" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E196" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F196" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5862,19 +5892,19 @@
         <v>176</v>
       </c>
       <c r="B197" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C197" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D197" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E197" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F197" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5882,19 +5912,19 @@
         <v>177</v>
       </c>
       <c r="B198" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C198" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D198" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E198" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F198" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5902,19 +5932,19 @@
         <v>178</v>
       </c>
       <c r="B199" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C199" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D199" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E199" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F199" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5922,19 +5952,19 @@
         <v>179</v>
       </c>
       <c r="B200" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C200" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D200" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E200" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F200" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5942,19 +5972,19 @@
         <v>180</v>
       </c>
       <c r="B201" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C201" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D201" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E201" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F201" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5962,19 +5992,19 @@
         <v>181</v>
       </c>
       <c r="B202" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C202" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D202" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E202" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F202" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5982,19 +6012,19 @@
         <v>182</v>
       </c>
       <c r="B203" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C203" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D203" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E203" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F203" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -6002,19 +6032,19 @@
         <v>183</v>
       </c>
       <c r="B204" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C204" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D204" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E204" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F204" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -6022,19 +6052,19 @@
         <v>184</v>
       </c>
       <c r="B205" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C205" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D205" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E205" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F205" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -6042,19 +6072,19 @@
         <v>185</v>
       </c>
       <c r="B206" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C206" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D206" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E206" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F206" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -6062,19 +6092,19 @@
         <v>186</v>
       </c>
       <c r="B207" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C207" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D207" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E207" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F207" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -6082,19 +6112,19 @@
         <v>187</v>
       </c>
       <c r="B208" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C208" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D208" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E208" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F208" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -6102,19 +6132,19 @@
         <v>188</v>
       </c>
       <c r="B209" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C209" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D209" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E209" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F209" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -6122,19 +6152,19 @@
         <v>189</v>
       </c>
       <c r="B210" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C210" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D210" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E210" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F210" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -6142,19 +6172,19 @@
         <v>190</v>
       </c>
       <c r="B211" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C211" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D211" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E211" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F211" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -6162,19 +6192,19 @@
         <v>191</v>
       </c>
       <c r="B212" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C212" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D212" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E212" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F212" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -6182,19 +6212,19 @@
         <v>192</v>
       </c>
       <c r="B213" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C213" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D213" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E213" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F213" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6202,19 +6232,19 @@
         <v>193</v>
       </c>
       <c r="B214" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C214" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D214" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E214" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F214" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6222,19 +6252,19 @@
         <v>194</v>
       </c>
       <c r="B215" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C215" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D215" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E215" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F215" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6242,19 +6272,19 @@
         <v>195</v>
       </c>
       <c r="B216" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C216" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D216" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E216" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F216" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6262,19 +6292,19 @@
         <v>196</v>
       </c>
       <c r="B217" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C217" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D217" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E217" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F217" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6282,19 +6312,19 @@
         <v>197</v>
       </c>
       <c r="B218" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C218" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D218" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E218" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F218" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6302,19 +6332,19 @@
         <v>198</v>
       </c>
       <c r="B219" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C219" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D219" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E219" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F219" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6322,19 +6352,19 @@
         <v>199</v>
       </c>
       <c r="B220" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C220" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D220" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E220" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F220" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6342,19 +6372,19 @@
         <v>200</v>
       </c>
       <c r="B221" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C221" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D221" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E221" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F221" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6362,19 +6392,19 @@
         <v>201</v>
       </c>
       <c r="B222" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C222" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D222" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E222" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F222" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6382,19 +6412,19 @@
         <v>202</v>
       </c>
       <c r="B223" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C223" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D223" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E223" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F223" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6402,19 +6432,19 @@
         <v>203</v>
       </c>
       <c r="B224" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C224" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D224" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E224" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F224" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6422,19 +6452,19 @@
         <v>204</v>
       </c>
       <c r="B225" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C225" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D225" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="E225" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F225" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -6442,19 +6472,19 @@
         <v>205</v>
       </c>
       <c r="B226" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C226" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D226" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E226" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F226" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -6462,19 +6492,19 @@
         <v>206</v>
       </c>
       <c r="B227" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C227" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D227" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E227" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F227" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -6482,19 +6512,19 @@
         <v>207</v>
       </c>
       <c r="B228" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C228" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D228" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E228" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F228" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6502,19 +6532,19 @@
         <v>208</v>
       </c>
       <c r="B229" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C229" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D229" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E229" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F229" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -6522,19 +6552,19 @@
         <v>209</v>
       </c>
       <c r="B230" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C230" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D230" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E230" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F230" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6542,19 +6572,19 @@
         <v>210</v>
       </c>
       <c r="B231" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C231" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D231" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E231" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F231" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6562,19 +6592,19 @@
         <v>211</v>
       </c>
       <c r="B232" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C232" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D232" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E232" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F232" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6582,19 +6612,19 @@
         <v>212</v>
       </c>
       <c r="B233" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C233" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D233" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E233" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F233" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6602,19 +6632,19 @@
         <v>213</v>
       </c>
       <c r="B234" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C234" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D234" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E234" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F234" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6622,19 +6652,19 @@
         <v>214</v>
       </c>
       <c r="B235" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C235" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D235" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E235" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F235" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6642,19 +6672,19 @@
         <v>215</v>
       </c>
       <c r="B236" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C236" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D236" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E236" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F236" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6662,19 +6692,19 @@
         <v>216</v>
       </c>
       <c r="B237" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C237" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D237" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E237" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F237" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6682,19 +6712,19 @@
         <v>217</v>
       </c>
       <c r="B238" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C238" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D238" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E238" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F238" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6702,19 +6732,19 @@
         <v>218</v>
       </c>
       <c r="B239" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C239" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D239" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E239" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F239" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6722,19 +6752,19 @@
         <v>219</v>
       </c>
       <c r="B240" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C240" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D240" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E240" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F240" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6742,19 +6772,19 @@
         <v>220</v>
       </c>
       <c r="B241" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C241" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D241" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="E241" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="F241" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6762,19 +6792,19 @@
         <v>221</v>
       </c>
       <c r="B242" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C242" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D242" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E242" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F242" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6782,19 +6812,19 @@
         <v>222</v>
       </c>
       <c r="B243" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C243" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D243" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="E243" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="F243" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6802,19 +6832,19 @@
         <v>223</v>
       </c>
       <c r="B244" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C244" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D244" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E244" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F244" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6822,19 +6852,19 @@
         <v>224</v>
       </c>
       <c r="B245" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C245" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D245" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E245" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F245" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6842,19 +6872,19 @@
         <v>225</v>
       </c>
       <c r="B246" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C246" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D246" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E246" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F246" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6862,19 +6892,19 @@
         <v>226</v>
       </c>
       <c r="B247" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C247" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D247" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E247" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F247" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6882,19 +6912,19 @@
         <v>227</v>
       </c>
       <c r="B248" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C248" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D248" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E248" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F248" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6902,19 +6932,19 @@
         <v>228</v>
       </c>
       <c r="B249" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C249" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D249" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E249" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F249" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6922,19 +6952,19 @@
         <v>229</v>
       </c>
       <c r="B250" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C250" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D250" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E250" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F250" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6942,19 +6972,19 @@
         <v>230</v>
       </c>
       <c r="B251" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C251" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D251" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E251" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F251" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6962,19 +6992,19 @@
         <v>231</v>
       </c>
       <c r="B252" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C252" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D252" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E252" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F252" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6982,19 +7012,19 @@
         <v>232</v>
       </c>
       <c r="B253" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C253" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D253" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E253" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F253" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -7002,19 +7032,19 @@
         <v>233</v>
       </c>
       <c r="B254" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C254" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D254" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E254" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F254" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -7022,19 +7052,19 @@
         <v>234</v>
       </c>
       <c r="B255" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C255" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D255" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E255" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F255" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -7042,19 +7072,19 @@
         <v>235</v>
       </c>
       <c r="B256" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C256" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D256" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E256" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F256" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -7062,19 +7092,19 @@
         <v>236</v>
       </c>
       <c r="B257" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C257" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D257" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E257" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F257" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -7082,19 +7112,19 @@
         <v>237</v>
       </c>
       <c r="B258" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C258" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D258" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E258" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F258" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -7102,19 +7132,19 @@
         <v>238</v>
       </c>
       <c r="B259" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C259" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D259" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="E259" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="F259" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -7122,19 +7152,19 @@
         <v>239</v>
       </c>
       <c r="B260" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C260" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D260" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E260" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="F260" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -7142,19 +7172,19 @@
         <v>240</v>
       </c>
       <c r="B261" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C261" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D261" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E261" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F261" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -7162,19 +7192,19 @@
         <v>241</v>
       </c>
       <c r="B262" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C262" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D262" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E262" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F262" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -7182,19 +7212,19 @@
         <v>242</v>
       </c>
       <c r="B263" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C263" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D263" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="E263" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F263" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -7202,19 +7232,19 @@
         <v>243</v>
       </c>
       <c r="B264" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C264" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D264" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E264" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F264" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -7222,19 +7252,19 @@
         <v>244</v>
       </c>
       <c r="B265" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C265" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D265" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E265" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F265" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -7242,19 +7272,19 @@
         <v>245</v>
       </c>
       <c r="B266" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C266" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D266" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E266" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F266" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -7262,19 +7292,19 @@
         <v>246</v>
       </c>
       <c r="B267" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D267" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E267" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F267" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -7282,19 +7312,19 @@
         <v>247</v>
       </c>
       <c r="B268" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D268" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E268" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F268" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -7302,19 +7332,19 @@
         <v>248</v>
       </c>
       <c r="B269" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C269" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D269" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E269" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F269" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -7322,19 +7352,19 @@
         <v>249</v>
       </c>
       <c r="B270" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C270" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D270" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E270" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F270" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -7342,19 +7372,19 @@
         <v>250</v>
       </c>
       <c r="B271" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C271" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D271" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E271" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -7362,19 +7392,19 @@
         <v>251</v>
       </c>
       <c r="B272" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C272" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D272" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="E272" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="F272" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -7382,16 +7412,19 @@
         <v>252</v>
       </c>
       <c r="B273" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C273" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D273" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E273" t="s">
-        <v>281</v>
+        <v>288</v>
+      </c>
+      <c r="F273" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -7399,19 +7432,19 @@
         <v>253</v>
       </c>
       <c r="B274" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C274" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D274" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="E274" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="F274" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -7419,19 +7452,19 @@
         <v>254</v>
       </c>
       <c r="B275" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C275" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D275" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E275" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F275" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -7439,19 +7472,16 @@
         <v>255</v>
       </c>
       <c r="B276" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C276" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D276" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E276" t="s">
-        <v>280</v>
-      </c>
-      <c r="F276" t="s">
-        <v>536</v>
+        <v>286</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -7459,19 +7489,19 @@
         <v>256</v>
       </c>
       <c r="B277" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C277" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D277" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F277" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -7479,19 +7509,19 @@
         <v>257</v>
       </c>
       <c r="B278" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C278" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D278" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E278" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F278" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -7499,19 +7529,19 @@
         <v>258</v>
       </c>
       <c r="B279" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C279" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D279" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E279" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F279" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -7519,19 +7549,19 @@
         <v>259</v>
       </c>
       <c r="B280" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C280" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D280" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E280" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F280" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -7539,19 +7569,119 @@
         <v>260</v>
       </c>
       <c r="B281" t="s">
+        <v>269</v>
+      </c>
+      <c r="C281" t="s">
+        <v>273</v>
+      </c>
+      <c r="D281" t="s">
+        <v>278</v>
+      </c>
+      <c r="E281" t="s">
+        <v>286</v>
+      </c>
+      <c r="F281" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" t="s">
+        <v>261</v>
+      </c>
+      <c r="B282" t="s">
+        <v>269</v>
+      </c>
+      <c r="C282" t="s">
+        <v>272</v>
+      </c>
+      <c r="D282" t="s">
+        <v>283</v>
+      </c>
+      <c r="E282" t="s">
+        <v>289</v>
+      </c>
+      <c r="F282" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" t="s">
+        <v>262</v>
+      </c>
+      <c r="B283" t="s">
+        <v>269</v>
+      </c>
+      <c r="C283" t="s">
+        <v>272</v>
+      </c>
+      <c r="D283" t="s">
+        <v>276</v>
+      </c>
+      <c r="E283" t="s">
+        <v>285</v>
+      </c>
+      <c r="F283" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" t="s">
+        <v>263</v>
+      </c>
+      <c r="B284" t="s">
+        <v>269</v>
+      </c>
+      <c r="C284" t="s">
+        <v>272</v>
+      </c>
+      <c r="D284" t="s">
+        <v>276</v>
+      </c>
+      <c r="E284" t="s">
+        <v>285</v>
+      </c>
+      <c r="F284" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" t="s">
         <v>264</v>
       </c>
-      <c r="C281" t="s">
-        <v>267</v>
-      </c>
-      <c r="D281" t="s">
-        <v>271</v>
-      </c>
-      <c r="E281" t="s">
-        <v>280</v>
-      </c>
-      <c r="F281" t="s">
-        <v>541</v>
+      <c r="B285" t="s">
+        <v>269</v>
+      </c>
+      <c r="C285" t="s">
+        <v>272</v>
+      </c>
+      <c r="D285" t="s">
+        <v>275</v>
+      </c>
+      <c r="E285" t="s">
+        <v>285</v>
+      </c>
+      <c r="F285" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" t="s">
+        <v>265</v>
+      </c>
+      <c r="B286" t="s">
+        <v>269</v>
+      </c>
+      <c r="C286" t="s">
+        <v>272</v>
+      </c>
+      <c r="D286" t="s">
+        <v>276</v>
+      </c>
+      <c r="E286" t="s">
+        <v>285</v>
+      </c>
+      <c r="F286" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>
